--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="19740" windowHeight="10170" tabRatio="1000"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="19740" windowHeight="10170" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="у1" sheetId="1" r:id="rId1"/>
@@ -2622,8 +2622,8 @@
   </sheetPr>
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +3849,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,19 +4134,27 @@
       <c r="C5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="180"/>
+      <c r="D5" s="153">
+        <v>25</v>
+      </c>
+      <c r="E5" s="180">
+        <v>25</v>
+      </c>
       <c r="F5" s="155"/>
       <c r="G5" s="156"/>
       <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
+      <c r="I5" s="155">
+        <v>25</v>
+      </c>
       <c r="J5" s="155"/>
       <c r="K5" s="155"/>
       <c r="L5" s="155"/>
       <c r="M5" s="156"/>
       <c r="N5" s="154"/>
       <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
+      <c r="P5" s="155">
+        <v>25</v>
+      </c>
       <c r="Q5" s="155"/>
       <c r="R5" s="155"/>
       <c r="S5" s="155"/>
@@ -4158,13 +4166,19 @@
       <c r="Y5" s="155"/>
       <c r="Z5" s="155"/>
       <c r="AA5" s="155"/>
-      <c r="AB5" s="156"/>
+      <c r="AB5" s="156">
+        <v>25</v>
+      </c>
       <c r="AC5" s="154"/>
       <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AE5" s="155">
+        <v>25</v>
+      </c>
       <c r="AF5" s="155"/>
       <c r="AG5" s="156"/>
-      <c r="AH5" s="154"/>
+      <c r="AH5" s="154">
+        <v>25</v>
+      </c>
       <c r="AI5" s="155"/>
       <c r="AJ5" s="157"/>
     </row>
@@ -4180,39 +4194,65 @@
       <c r="C6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="181"/>
+      <c r="D6" s="158">
+        <v>37</v>
+      </c>
+      <c r="E6" s="181">
+        <v>37</v>
+      </c>
       <c r="F6" s="160"/>
       <c r="G6" s="161"/>
       <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="I6" s="160">
+        <v>36</v>
+      </c>
       <c r="J6" s="160"/>
       <c r="K6" s="160"/>
       <c r="L6" s="160"/>
-      <c r="M6" s="161"/>
+      <c r="M6" s="161">
+        <v>1</v>
+      </c>
       <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="O6" s="160">
+        <v>2</v>
+      </c>
+      <c r="P6" s="160">
+        <v>34</v>
+      </c>
       <c r="Q6" s="160"/>
       <c r="R6" s="160"/>
       <c r="S6" s="160"/>
       <c r="T6" s="160"/>
       <c r="U6" s="160"/>
       <c r="V6" s="160"/>
-      <c r="W6" s="161"/>
+      <c r="W6" s="161">
+        <v>1</v>
+      </c>
       <c r="X6" s="159"/>
       <c r="Y6" s="160"/>
       <c r="Z6" s="160"/>
       <c r="AA6" s="160"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="159"/>
+      <c r="AB6" s="161">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="159">
+        <v>2</v>
+      </c>
       <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
+      <c r="AE6" s="160">
+        <v>34</v>
+      </c>
       <c r="AF6" s="160"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="159"/>
+      <c r="AG6" s="161">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="159">
+        <v>36</v>
+      </c>
       <c r="AI6" s="160"/>
-      <c r="AJ6" s="162"/>
+      <c r="AJ6" s="162">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
@@ -4226,37 +4266,59 @@
       <c r="C7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="180"/>
+      <c r="D7" s="153">
+        <v>23</v>
+      </c>
+      <c r="E7" s="180">
+        <v>22</v>
+      </c>
       <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
+      <c r="G7" s="156">
+        <v>1</v>
+      </c>
       <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
+      <c r="I7" s="155">
+        <v>22</v>
+      </c>
       <c r="J7" s="155"/>
       <c r="K7" s="155"/>
       <c r="L7" s="155"/>
-      <c r="M7" s="156"/>
+      <c r="M7" s="156">
+        <v>1</v>
+      </c>
       <c r="N7" s="154"/>
       <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
+      <c r="P7" s="155">
+        <v>22</v>
+      </c>
       <c r="Q7" s="155"/>
       <c r="R7" s="155"/>
       <c r="S7" s="155"/>
       <c r="T7" s="155"/>
       <c r="U7" s="155"/>
       <c r="V7" s="155"/>
-      <c r="W7" s="156"/>
+      <c r="W7" s="156">
+        <v>1</v>
+      </c>
       <c r="X7" s="154"/>
       <c r="Y7" s="155"/>
       <c r="Z7" s="155"/>
       <c r="AA7" s="155"/>
-      <c r="AB7" s="156"/>
+      <c r="AB7" s="156">
+        <v>23</v>
+      </c>
       <c r="AC7" s="154"/>
       <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
+      <c r="AE7" s="155">
+        <v>22</v>
+      </c>
       <c r="AF7" s="155"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="154"/>
+      <c r="AG7" s="156">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="154">
+        <v>23</v>
+      </c>
       <c r="AI7" s="155"/>
       <c r="AJ7" s="157"/>
     </row>
@@ -4272,39 +4334,69 @@
       <c r="C8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="181"/>
+      <c r="D8" s="158">
+        <v>32</v>
+      </c>
+      <c r="E8" s="181">
+        <v>31</v>
+      </c>
       <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="159"/>
+      <c r="G8" s="161">
+        <v>1</v>
+      </c>
+      <c r="H8" s="159">
+        <v>1</v>
+      </c>
       <c r="I8" s="160"/>
       <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
+      <c r="K8" s="160">
+        <v>30</v>
+      </c>
       <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="159"/>
+      <c r="M8" s="161">
+        <v>1</v>
+      </c>
+      <c r="N8" s="159">
+        <v>1</v>
+      </c>
       <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
+      <c r="P8" s="160">
+        <v>30</v>
+      </c>
       <c r="Q8" s="160"/>
       <c r="R8" s="160"/>
       <c r="S8" s="160"/>
       <c r="T8" s="160"/>
       <c r="U8" s="160"/>
       <c r="V8" s="160"/>
-      <c r="W8" s="161"/>
+      <c r="W8" s="161">
+        <v>1</v>
+      </c>
       <c r="X8" s="159"/>
       <c r="Y8" s="160"/>
       <c r="Z8" s="160"/>
       <c r="AA8" s="160"/>
-      <c r="AB8" s="161"/>
+      <c r="AB8" s="161">
+        <v>32</v>
+      </c>
       <c r="AC8" s="159"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
+      <c r="AD8" s="160">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="160">
+        <v>30</v>
+      </c>
       <c r="AF8" s="160"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="159"/>
+      <c r="AG8" s="161">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="159">
+        <v>31</v>
+      </c>
       <c r="AI8" s="160"/>
-      <c r="AJ8" s="162"/>
+      <c r="AJ8" s="162">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
@@ -4318,39 +4410,69 @@
       <c r="C9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="180"/>
+      <c r="D9" s="153">
+        <v>19</v>
+      </c>
+      <c r="E9" s="180">
+        <v>19</v>
+      </c>
       <c r="F9" s="155"/>
       <c r="G9" s="156"/>
       <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
+      <c r="I9" s="155">
+        <v>1</v>
+      </c>
       <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="156"/>
+      <c r="K9" s="155">
+        <v>1</v>
+      </c>
+      <c r="L9" s="155">
+        <v>16</v>
+      </c>
+      <c r="M9" s="156">
+        <v>1</v>
+      </c>
       <c r="N9" s="154"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
+      <c r="O9" s="155">
+        <v>1</v>
+      </c>
+      <c r="P9" s="155">
+        <v>1</v>
+      </c>
       <c r="Q9" s="155"/>
       <c r="R9" s="155"/>
       <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
+      <c r="T9" s="155">
+        <v>16</v>
+      </c>
       <c r="U9" s="155"/>
       <c r="V9" s="155"/>
-      <c r="W9" s="156"/>
+      <c r="W9" s="156">
+        <v>1</v>
+      </c>
       <c r="X9" s="154"/>
       <c r="Y9" s="155"/>
       <c r="Z9" s="155"/>
       <c r="AA9" s="155"/>
-      <c r="AB9" s="156"/>
+      <c r="AB9" s="156">
+        <v>19</v>
+      </c>
       <c r="AC9" s="154"/>
       <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
+      <c r="AE9" s="155">
+        <v>19</v>
+      </c>
       <c r="AF9" s="155"/>
       <c r="AG9" s="156"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="157"/>
+      <c r="AH9" s="154">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="155">
+        <v>16</v>
+      </c>
+      <c r="AJ9" s="157">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
@@ -6659,19 +6781,27 @@
       <c r="C5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="180"/>
+      <c r="D5" s="153">
+        <v>28</v>
+      </c>
+      <c r="E5" s="180">
+        <v>28</v>
+      </c>
       <c r="F5" s="155"/>
       <c r="G5" s="156"/>
       <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
+      <c r="I5" s="155">
+        <v>28</v>
+      </c>
       <c r="J5" s="155"/>
       <c r="K5" s="155"/>
       <c r="L5" s="155"/>
       <c r="M5" s="156"/>
       <c r="N5" s="154"/>
       <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
+      <c r="P5" s="155">
+        <v>28</v>
+      </c>
       <c r="Q5" s="155"/>
       <c r="R5" s="155"/>
       <c r="S5" s="155"/>
@@ -6683,13 +6813,19 @@
       <c r="Y5" s="155"/>
       <c r="Z5" s="155"/>
       <c r="AA5" s="155"/>
-      <c r="AB5" s="156"/>
+      <c r="AB5" s="156">
+        <v>28</v>
+      </c>
       <c r="AC5" s="154"/>
       <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AE5" s="155">
+        <v>28</v>
+      </c>
       <c r="AF5" s="155"/>
       <c r="AG5" s="156"/>
-      <c r="AH5" s="154"/>
+      <c r="AH5" s="154">
+        <v>28</v>
+      </c>
       <c r="AI5" s="155"/>
       <c r="AJ5" s="157"/>
     </row>
@@ -6705,22 +6841,36 @@
       <c r="C6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="181"/>
+      <c r="D6" s="158">
+        <v>41</v>
+      </c>
+      <c r="E6" s="181">
+        <v>40</v>
+      </c>
       <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="G6" s="161">
+        <v>1</v>
+      </c>
       <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="I6" s="160">
+        <v>40</v>
+      </c>
       <c r="J6" s="160"/>
       <c r="K6" s="160"/>
       <c r="L6" s="160"/>
-      <c r="M6" s="161"/>
+      <c r="M6" s="161">
+        <v>1</v>
+      </c>
       <c r="N6" s="159"/>
       <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="P6" s="160">
+        <v>40</v>
+      </c>
       <c r="Q6" s="160"/>
       <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
+      <c r="S6" s="160">
+        <v>1</v>
+      </c>
       <c r="T6" s="160"/>
       <c r="U6" s="160"/>
       <c r="V6" s="160"/>
@@ -6729,15 +6879,25 @@
       <c r="Y6" s="160"/>
       <c r="Z6" s="160"/>
       <c r="AA6" s="160"/>
-      <c r="AB6" s="161"/>
+      <c r="AB6" s="161">
+        <v>41</v>
+      </c>
       <c r="AC6" s="159"/>
       <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
+      <c r="AE6" s="160">
+        <v>40</v>
+      </c>
       <c r="AF6" s="160"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="159"/>
+      <c r="AG6" s="161">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="159">
+        <v>40</v>
+      </c>
       <c r="AI6" s="160"/>
-      <c r="AJ6" s="162"/>
+      <c r="AJ6" s="162">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
@@ -6751,39 +6911,63 @@
       <c r="C7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="180"/>
+      <c r="D7" s="153">
+        <v>56</v>
+      </c>
+      <c r="E7" s="180">
+        <v>56</v>
+      </c>
       <c r="F7" s="155"/>
       <c r="G7" s="156"/>
       <c r="H7" s="154"/>
       <c r="I7" s="155"/>
       <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="K7" s="155">
+        <v>54</v>
+      </c>
       <c r="L7" s="155"/>
-      <c r="M7" s="156"/>
+      <c r="M7" s="156">
+        <v>2</v>
+      </c>
       <c r="N7" s="154"/>
       <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
+      <c r="P7" s="155">
+        <v>54</v>
+      </c>
       <c r="Q7" s="155"/>
       <c r="R7" s="155"/>
       <c r="S7" s="155"/>
       <c r="T7" s="155"/>
       <c r="U7" s="155"/>
       <c r="V7" s="155"/>
-      <c r="W7" s="156"/>
+      <c r="W7" s="156">
+        <v>2</v>
+      </c>
       <c r="X7" s="154"/>
       <c r="Y7" s="155"/>
       <c r="Z7" s="155"/>
       <c r="AA7" s="155"/>
-      <c r="AB7" s="156"/>
-      <c r="AC7" s="154"/>
+      <c r="AB7" s="156">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="154">
+        <v>1</v>
+      </c>
       <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
+      <c r="AE7" s="155">
+        <v>54</v>
+      </c>
       <c r="AF7" s="155"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="154"/>
+      <c r="AG7" s="156">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="154">
+        <v>54</v>
+      </c>
       <c r="AI7" s="155"/>
-      <c r="AJ7" s="157"/>
+      <c r="AJ7" s="157">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
@@ -6797,22 +6981,38 @@
       <c r="C8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="181"/>
+      <c r="D8" s="158">
+        <v>60</v>
+      </c>
+      <c r="E8" s="181">
+        <v>59</v>
+      </c>
       <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="G8" s="161">
+        <v>1</v>
+      </c>
       <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
+      <c r="I8" s="160">
+        <v>1</v>
+      </c>
       <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
+      <c r="K8" s="160">
+        <v>58</v>
+      </c>
       <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
+      <c r="M8" s="161">
+        <v>1</v>
+      </c>
       <c r="N8" s="159"/>
       <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
+      <c r="P8" s="160">
+        <v>59</v>
+      </c>
       <c r="Q8" s="160"/>
       <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
+      <c r="S8" s="160">
+        <v>1</v>
+      </c>
       <c r="T8" s="160"/>
       <c r="U8" s="160"/>
       <c r="V8" s="160"/>
@@ -6821,15 +7021,27 @@
       <c r="Y8" s="160"/>
       <c r="Z8" s="160"/>
       <c r="AA8" s="160"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="159"/>
+      <c r="AB8" s="161">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="159">
+        <v>1</v>
+      </c>
       <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
+      <c r="AE8" s="160">
+        <v>58</v>
+      </c>
       <c r="AF8" s="160"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="159"/>
+      <c r="AG8" s="161">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="159">
+        <v>59</v>
+      </c>
       <c r="AI8" s="160"/>
-      <c r="AJ8" s="162"/>
+      <c r="AJ8" s="162">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
@@ -6843,23 +7055,35 @@
       <c r="C9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="180"/>
+      <c r="D9" s="153">
+        <v>24</v>
+      </c>
+      <c r="E9" s="180">
+        <v>24</v>
+      </c>
       <c r="F9" s="155"/>
       <c r="G9" s="156"/>
       <c r="H9" s="154"/>
       <c r="I9" s="155"/>
       <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
+      <c r="K9" s="155">
+        <v>2</v>
+      </c>
+      <c r="L9" s="155">
+        <v>22</v>
+      </c>
       <c r="M9" s="156"/>
       <c r="N9" s="154"/>
       <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
+      <c r="P9" s="155">
+        <v>3</v>
+      </c>
       <c r="Q9" s="155"/>
       <c r="R9" s="155"/>
       <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
+      <c r="T9" s="155">
+        <v>21</v>
+      </c>
       <c r="U9" s="155"/>
       <c r="V9" s="155"/>
       <c r="W9" s="156"/>
@@ -6867,14 +7091,22 @@
       <c r="Y9" s="155"/>
       <c r="Z9" s="155"/>
       <c r="AA9" s="155"/>
-      <c r="AB9" s="156"/>
+      <c r="AB9" s="156">
+        <v>24</v>
+      </c>
       <c r="AC9" s="154"/>
       <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
+      <c r="AE9" s="155">
+        <v>24</v>
+      </c>
       <c r="AF9" s="155"/>
       <c r="AG9" s="156"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="155"/>
+      <c r="AH9" s="154">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="155">
+        <v>21</v>
+      </c>
       <c r="AJ9" s="157"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6889,15 +7121,21 @@
       <c r="C10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="181"/>
+      <c r="D10" s="158">
+        <v>1</v>
+      </c>
+      <c r="E10" s="181">
+        <v>1</v>
+      </c>
       <c r="F10" s="160"/>
       <c r="G10" s="161"/>
       <c r="H10" s="159"/>
       <c r="I10" s="160"/>
       <c r="J10" s="160"/>
       <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
+      <c r="L10" s="160">
+        <v>1</v>
+      </c>
       <c r="M10" s="161"/>
       <c r="N10" s="159"/>
       <c r="O10" s="160"/>
@@ -6905,7 +7143,9 @@
       <c r="Q10" s="160"/>
       <c r="R10" s="160"/>
       <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
+      <c r="T10" s="160">
+        <v>1</v>
+      </c>
       <c r="U10" s="160"/>
       <c r="V10" s="160"/>
       <c r="W10" s="161"/>
@@ -6913,14 +7153,20 @@
       <c r="Y10" s="160"/>
       <c r="Z10" s="160"/>
       <c r="AA10" s="160"/>
-      <c r="AB10" s="161"/>
+      <c r="AB10" s="161">
+        <v>1</v>
+      </c>
       <c r="AC10" s="159"/>
       <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
+      <c r="AE10" s="160">
+        <v>1</v>
+      </c>
       <c r="AF10" s="160"/>
       <c r="AG10" s="161"/>
       <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
+      <c r="AI10" s="160">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="162"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11385,7 +11631,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11670,19 +11916,27 @@
       <c r="C5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="180"/>
+      <c r="D5" s="153">
+        <v>8</v>
+      </c>
+      <c r="E5" s="180">
+        <v>8</v>
+      </c>
       <c r="F5" s="155"/>
       <c r="G5" s="156"/>
       <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
+      <c r="I5" s="155">
+        <v>8</v>
+      </c>
       <c r="J5" s="155"/>
       <c r="K5" s="155"/>
       <c r="L5" s="155"/>
       <c r="M5" s="156"/>
       <c r="N5" s="154"/>
       <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
+      <c r="P5" s="155">
+        <v>8</v>
+      </c>
       <c r="Q5" s="155"/>
       <c r="R5" s="155"/>
       <c r="S5" s="155"/>
@@ -11694,13 +11948,19 @@
       <c r="Y5" s="155"/>
       <c r="Z5" s="155"/>
       <c r="AA5" s="155"/>
-      <c r="AB5" s="156"/>
+      <c r="AB5" s="156">
+        <v>8</v>
+      </c>
       <c r="AC5" s="154"/>
       <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AE5" s="155">
+        <v>8</v>
+      </c>
       <c r="AF5" s="155"/>
       <c r="AG5" s="156"/>
-      <c r="AH5" s="154"/>
+      <c r="AH5" s="154">
+        <v>8</v>
+      </c>
       <c r="AI5" s="155"/>
       <c r="AJ5" s="157"/>
     </row>
@@ -11716,19 +11976,27 @@
       <c r="C6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="181"/>
+      <c r="D6" s="158">
+        <v>11</v>
+      </c>
+      <c r="E6" s="181">
+        <v>11</v>
+      </c>
       <c r="F6" s="160"/>
       <c r="G6" s="161"/>
       <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="I6" s="160">
+        <v>11</v>
+      </c>
       <c r="J6" s="160"/>
       <c r="K6" s="160"/>
       <c r="L6" s="160"/>
       <c r="M6" s="161"/>
       <c r="N6" s="159"/>
       <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="P6" s="160">
+        <v>11</v>
+      </c>
       <c r="Q6" s="160"/>
       <c r="R6" s="160"/>
       <c r="S6" s="160"/>
@@ -11740,13 +12008,19 @@
       <c r="Y6" s="160"/>
       <c r="Z6" s="160"/>
       <c r="AA6" s="160"/>
-      <c r="AB6" s="161"/>
+      <c r="AB6" s="161">
+        <v>11</v>
+      </c>
       <c r="AC6" s="159"/>
       <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
+      <c r="AE6" s="160">
+        <v>11</v>
+      </c>
       <c r="AF6" s="160"/>
       <c r="AG6" s="161"/>
-      <c r="AH6" s="159"/>
+      <c r="AH6" s="159">
+        <v>11</v>
+      </c>
       <c r="AI6" s="160"/>
       <c r="AJ6" s="162"/>
     </row>
@@ -11762,19 +12036,31 @@
       <c r="C7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="180"/>
+      <c r="D7" s="153">
+        <v>18</v>
+      </c>
+      <c r="E7" s="180">
+        <v>18</v>
+      </c>
       <c r="F7" s="155"/>
       <c r="G7" s="156"/>
       <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="I7" s="155">
+        <v>5</v>
+      </c>
+      <c r="J7" s="155">
+        <v>11</v>
+      </c>
+      <c r="K7" s="155">
+        <v>2</v>
+      </c>
       <c r="L7" s="155"/>
       <c r="M7" s="156"/>
       <c r="N7" s="154"/>
       <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
+      <c r="P7" s="155">
+        <v>18</v>
+      </c>
       <c r="Q7" s="155"/>
       <c r="R7" s="155"/>
       <c r="S7" s="155"/>
@@ -11786,13 +12072,19 @@
       <c r="Y7" s="155"/>
       <c r="Z7" s="155"/>
       <c r="AA7" s="155"/>
-      <c r="AB7" s="156"/>
+      <c r="AB7" s="156">
+        <v>18</v>
+      </c>
       <c r="AC7" s="154"/>
       <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
+      <c r="AE7" s="155">
+        <v>18</v>
+      </c>
       <c r="AF7" s="155"/>
       <c r="AG7" s="156"/>
-      <c r="AH7" s="154"/>
+      <c r="AH7" s="154">
+        <v>18</v>
+      </c>
       <c r="AI7" s="155"/>
       <c r="AJ7" s="157"/>
     </row>
@@ -11808,19 +12100,27 @@
       <c r="C8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="181"/>
+      <c r="D8" s="158">
+        <v>17</v>
+      </c>
+      <c r="E8" s="181">
+        <v>17</v>
+      </c>
       <c r="F8" s="160"/>
       <c r="G8" s="161"/>
       <c r="H8" s="159"/>
       <c r="I8" s="160"/>
       <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
+      <c r="K8" s="160">
+        <v>17</v>
+      </c>
       <c r="L8" s="160"/>
       <c r="M8" s="161"/>
       <c r="N8" s="159"/>
       <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
+      <c r="P8" s="160">
+        <v>17</v>
+      </c>
       <c r="Q8" s="160"/>
       <c r="R8" s="160"/>
       <c r="S8" s="160"/>
@@ -11832,13 +12132,19 @@
       <c r="Y8" s="160"/>
       <c r="Z8" s="160"/>
       <c r="AA8" s="160"/>
-      <c r="AB8" s="161"/>
+      <c r="AB8" s="161">
+        <v>17</v>
+      </c>
       <c r="AC8" s="159"/>
       <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
+      <c r="AE8" s="160">
+        <v>17</v>
+      </c>
       <c r="AF8" s="160"/>
       <c r="AG8" s="161"/>
-      <c r="AH8" s="159"/>
+      <c r="AH8" s="159">
+        <v>17</v>
+      </c>
       <c r="AI8" s="160"/>
       <c r="AJ8" s="162"/>
     </row>
@@ -11854,15 +12160,21 @@
       <c r="C9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="180"/>
+      <c r="D9" s="153">
+        <v>7</v>
+      </c>
+      <c r="E9" s="180">
+        <v>7</v>
+      </c>
       <c r="F9" s="155"/>
       <c r="G9" s="156"/>
       <c r="H9" s="154"/>
       <c r="I9" s="155"/>
       <c r="J9" s="155"/>
       <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
+      <c r="L9" s="155">
+        <v>7</v>
+      </c>
       <c r="M9" s="156"/>
       <c r="N9" s="154"/>
       <c r="O9" s="155"/>
@@ -11870,7 +12182,9 @@
       <c r="Q9" s="155"/>
       <c r="R9" s="155"/>
       <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
+      <c r="T9" s="155">
+        <v>7</v>
+      </c>
       <c r="U9" s="155"/>
       <c r="V9" s="155"/>
       <c r="W9" s="156"/>
@@ -11878,14 +12192,20 @@
       <c r="Y9" s="155"/>
       <c r="Z9" s="155"/>
       <c r="AA9" s="155"/>
-      <c r="AB9" s="156"/>
+      <c r="AB9" s="156">
+        <v>7</v>
+      </c>
       <c r="AC9" s="154"/>
       <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
+      <c r="AE9" s="155">
+        <v>7</v>
+      </c>
       <c r="AF9" s="155"/>
       <c r="AG9" s="156"/>
       <c r="AH9" s="154"/>
-      <c r="AI9" s="155"/>
+      <c r="AI9" s="155">
+        <v>7</v>
+      </c>
       <c r="AJ9" s="157"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11900,15 +12220,21 @@
       <c r="C10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="181"/>
+      <c r="D10" s="158">
+        <v>1</v>
+      </c>
+      <c r="E10" s="181">
+        <v>1</v>
+      </c>
       <c r="F10" s="160"/>
       <c r="G10" s="161"/>
       <c r="H10" s="159"/>
       <c r="I10" s="160"/>
       <c r="J10" s="160"/>
       <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
+      <c r="L10" s="160">
+        <v>1</v>
+      </c>
       <c r="M10" s="161"/>
       <c r="N10" s="159"/>
       <c r="O10" s="160"/>
@@ -11916,7 +12242,9 @@
       <c r="Q10" s="160"/>
       <c r="R10" s="160"/>
       <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
+      <c r="T10" s="160">
+        <v>1</v>
+      </c>
       <c r="U10" s="160"/>
       <c r="V10" s="160"/>
       <c r="W10" s="161"/>
@@ -11924,14 +12252,20 @@
       <c r="Y10" s="160"/>
       <c r="Z10" s="160"/>
       <c r="AA10" s="160"/>
-      <c r="AB10" s="161"/>
+      <c r="AB10" s="161">
+        <v>1</v>
+      </c>
       <c r="AC10" s="159"/>
       <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
+      <c r="AE10" s="160">
+        <v>1</v>
+      </c>
       <c r="AF10" s="160"/>
       <c r="AG10" s="161"/>
       <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
+      <c r="AI10" s="160">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="162"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12674,9 +13008,7 @@
     <col min="13" max="13" width="4.28515625" customWidth="1"/>
     <col min="14" max="22" width="5.28515625" customWidth="1"/>
     <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="27" width="5.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" customWidth="1"/>
-    <col min="29" max="32" width="5.28515625" customWidth="1"/>
+    <col min="24" max="32" width="5.28515625" customWidth="1"/>
     <col min="33" max="33" width="4.28515625" customWidth="1"/>
     <col min="34" max="35" width="5.28515625" customWidth="1"/>
     <col min="36" max="36" width="4.28515625" customWidth="1"/>
@@ -13044,11 +13376,11 @@
       </c>
       <c r="D5" s="30">
         <f>с17!D5+с20!D5+с21!D5+с22!D5+с39!D5+с44!D5+с55!D5+с56!D5+с61!D5+с83!D5+'с Олг'!D5+ДЦРР5!D5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E5" s="62">
         <f>с17!E5+с20!E5+с21!E5+с22!E5+с39!E5+с44!E5+с55!E5+с56!E5+с61!E5+с83!E5+'с Олг'!E5+ДЦРР5!E5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F5" s="32">
         <f>с17!F5+с20!F5+с21!F5+с22!F5+с39!F5+с44!F5+с55!F5+с56!F5+с61!F5+с83!F5+'с Олг'!F5+ДЦРР5!F5</f>
@@ -13064,7 +13396,7 @@
       </c>
       <c r="I5" s="32">
         <f>с17!I5+с20!I5+с21!I5+с22!I5+с39!I5+с44!I5+с55!I5+с56!I5+с61!I5+с83!I5+'с Олг'!I5+ДЦРР5!I5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J5" s="32">
         <f>с17!J5+с20!J5+с21!J5+с22!J5+с39!J5+с44!J5+с55!J5+с56!J5+с61!J5+с83!J5+'с Олг'!J5+ДЦРР5!J5</f>
@@ -13092,7 +13424,7 @@
       </c>
       <c r="P5" s="32">
         <f>с17!P5+с20!P5+с21!P5+с22!P5+с39!P5+с44!P5+с55!P5+с56!P5+с61!P5+с83!P5+'с Олг'!P5+ДЦРР5!P5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="32">
         <f>с17!Q5+с20!Q5+с21!Q5+с22!Q5+с39!Q5+с44!Q5+с55!Q5+с56!Q5+с61!Q5+с83!Q5+'с Олг'!Q5+ДЦРР5!Q5</f>
@@ -13140,7 +13472,7 @@
       </c>
       <c r="AB5" s="33">
         <f>с17!AB5+с20!AB5+с21!AB5+с22!AB5+с39!AB5+с44!AB5+с55!AB5+с56!AB5+с61!AB5+с83!AB5+'с Олг'!AB5+ДЦРР5!AB5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="31">
         <f>с17!AC5+с20!AC5+с21!AC5+с22!AC5+с39!AC5+с44!AC5+с55!AC5+с56!AC5+с61!AC5+с83!AC5+'с Олг'!AC5+ДЦРР5!AC5</f>
@@ -13152,7 +13484,7 @@
       </c>
       <c r="AE5" s="32">
         <f>с17!AE5+с20!AE5+с21!AE5+с22!AE5+с39!AE5+с44!AE5+с55!AE5+с56!AE5+с61!AE5+с83!AE5+'с Олг'!AE5+ДЦРР5!AE5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AF5" s="32">
         <f>с17!AF5+с20!AF5+с21!AF5+с22!AF5+с39!AF5+с44!AF5+с55!AF5+с56!AF5+с61!AF5+с83!AF5+'с Олг'!AF5+ДЦРР5!AF5</f>
@@ -13164,7 +13496,7 @@
       </c>
       <c r="AH5" s="31">
         <f>с17!AH5+с20!AH5+с21!AH5+с22!AH5+с39!AH5+с44!AH5+с55!AH5+с56!AH5+с61!AH5+с83!AH5+'с Олг'!AH5+ДЦРР5!AH5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AI5" s="32">
         <f>с17!AI5+с20!AI5+с21!AI5+с22!AI5+с39!AI5+с44!AI5+с55!AI5+с56!AI5+с61!AI5+с83!AI5+'с Олг'!AI5+ДЦРР5!AI5</f>
@@ -13190,11 +13522,11 @@
       </c>
       <c r="D6" s="107">
         <f>с17!D6+с20!D6+с21!D6+с22!D6+с39!D6+с44!D6+с55!D6+с56!D6+с61!D6+с83!D6+'с Олг'!D6+ДЦРР5!D6</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E6" s="108">
         <f>с17!E6+с20!E6+с21!E6+с22!E6+с39!E6+с44!E6+с55!E6+с56!E6+с61!E6+с83!E6+'с Олг'!E6+ДЦРР5!E6</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F6" s="109">
         <f>с17!F6+с20!F6+с21!F6+с22!F6+с39!F6+с44!F6+с55!F6+с56!F6+с61!F6+с83!F6+'с Олг'!F6+ДЦРР5!F6</f>
@@ -13202,7 +13534,7 @@
       </c>
       <c r="G6" s="110">
         <f>с17!G6+с20!G6+с21!G6+с22!G6+с39!G6+с44!G6+с55!G6+с56!G6+с61!G6+с83!G6+'с Олг'!G6+ДЦРР5!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="111">
         <f>с17!H6+с20!H6+с21!H6+с22!H6+с39!H6+с44!H6+с55!H6+с56!H6+с61!H6+с83!H6+'с Олг'!H6+ДЦРР5!H6</f>
@@ -13210,7 +13542,7 @@
       </c>
       <c r="I6" s="109">
         <f>с17!I6+с20!I6+с21!I6+с22!I6+с39!I6+с44!I6+с55!I6+с56!I6+с61!I6+с83!I6+'с Олг'!I6+ДЦРР5!I6</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J6" s="109">
         <f>с17!J6+с20!J6+с21!J6+с22!J6+с39!J6+с44!J6+с55!J6+с56!J6+с61!J6+с83!J6+'с Олг'!J6+ДЦРР5!J6</f>
@@ -13226,7 +13558,7 @@
       </c>
       <c r="M6" s="110">
         <f>с17!M6+с20!M6+с21!M6+с22!M6+с39!M6+с44!M6+с55!M6+с56!M6+с61!M6+с83!M6+'с Олг'!M6+ДЦРР5!M6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="111">
         <f>с17!N6+с20!N6+с21!N6+с22!N6+с39!N6+с44!N6+с55!N6+с56!N6+с61!N6+с83!N6+'с Олг'!N6+ДЦРР5!N6</f>
@@ -13234,11 +13566,11 @@
       </c>
       <c r="O6" s="109">
         <f>с17!O6+с20!O6+с21!O6+с22!O6+с39!O6+с44!O6+с55!O6+с56!O6+с61!O6+с83!O6+'с Олг'!O6+ДЦРР5!O6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="109">
         <f>с17!P6+с20!P6+с21!P6+с22!P6+с39!P6+с44!P6+с55!P6+с56!P6+с61!P6+с83!P6+'с Олг'!P6+ДЦРР5!P6</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="109">
         <f>с17!Q6+с20!Q6+с21!Q6+с22!Q6+с39!Q6+с44!Q6+с55!Q6+с56!Q6+с61!Q6+с83!Q6+'с Олг'!Q6+ДЦРР5!Q6</f>
@@ -13250,7 +13582,7 @@
       </c>
       <c r="S6" s="109">
         <f>с17!S6+с20!S6+с21!S6+с22!S6+с39!S6+с44!S6+с55!S6+с56!S6+с61!S6+с83!S6+'с Олг'!S6+ДЦРР5!S6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="109">
         <f>с17!T6+с20!T6+с21!T6+с22!T6+с39!T6+с44!T6+с55!T6+с56!T6+с61!T6+с83!T6+'с Олг'!T6+ДЦРР5!T6</f>
@@ -13266,7 +13598,7 @@
       </c>
       <c r="W6" s="110">
         <f>с17!W6+с20!W6+с21!W6+с22!W6+с39!W6+с44!W6+с55!W6+с56!W6+с61!W6+с83!W6+'с Олг'!W6+ДЦРР5!W6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="111">
         <f>с17!X6+с20!X6+с21!X6+с22!X6+с39!X6+с44!X6+с55!X6+с56!X6+с61!X6+с83!X6+'с Олг'!X6+ДЦРР5!X6</f>
@@ -13286,11 +13618,11 @@
       </c>
       <c r="AB6" s="110">
         <f>с17!AB6+с20!AB6+с21!AB6+с22!AB6+с39!AB6+с44!AB6+с55!AB6+с56!AB6+с61!AB6+с83!AB6+'с Олг'!AB6+ДЦРР5!AB6</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="111">
         <f>с17!AC6+с20!AC6+с21!AC6+с22!AC6+с39!AC6+с44!AC6+с55!AC6+с56!AC6+с61!AC6+с83!AC6+'с Олг'!AC6+ДЦРР5!AC6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="109">
         <f>с17!AD6+с20!AD6+с21!AD6+с22!AD6+с39!AD6+с44!AD6+с55!AD6+с56!AD6+с61!AD6+с83!AD6+'с Олг'!AD6+ДЦРР5!AD6</f>
@@ -13298,7 +13630,7 @@
       </c>
       <c r="AE6" s="109">
         <f>с17!AE6+с20!AE6+с21!AE6+с22!AE6+с39!AE6+с44!AE6+с55!AE6+с56!AE6+с61!AE6+с83!AE6+'с Олг'!AE6+ДЦРР5!AE6</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="109">
         <f>с17!AF6+с20!AF6+с21!AF6+с22!AF6+с39!AF6+с44!AF6+с55!AF6+с56!AF6+с61!AF6+с83!AF6+'с Олг'!AF6+ДЦРР5!AF6</f>
@@ -13306,11 +13638,11 @@
       </c>
       <c r="AG6" s="110">
         <f>с17!AG6+с20!AG6+с21!AG6+с22!AG6+с39!AG6+с44!AG6+с55!AG6+с56!AG6+с61!AG6+с83!AG6+'с Олг'!AG6+ДЦРР5!AG6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="111">
         <f>с17!AH6+с20!AH6+с21!AH6+с22!AH6+с39!AH6+с44!AH6+с55!AH6+с56!AH6+с61!AH6+с83!AH6+'с Олг'!AH6+ДЦРР5!AH6</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AI6" s="109">
         <f>с17!AI6+с20!AI6+с21!AI6+с22!AI6+с39!AI6+с44!AI6+с55!AI6+с56!AI6+с61!AI6+с83!AI6+'с Олг'!AI6+ДЦРР5!AI6</f>
@@ -13318,7 +13650,7 @@
       </c>
       <c r="AJ6" s="112">
         <f>с17!AJ6+с20!AJ6+с21!AJ6+с22!AJ6+с39!AJ6+с44!AJ6+с55!AJ6+с56!AJ6+с61!AJ6+с83!AJ6+'с Олг'!AJ6+ДЦРР5!AJ6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="90"/>
     </row>
@@ -13336,11 +13668,11 @@
       </c>
       <c r="D7" s="30">
         <f>с17!D7+с20!D7+с21!D7+с22!D7+с39!D7+с44!D7+с55!D7+с56!D7+с61!D7+с83!D7+'с Олг'!D7+ДЦРР5!D7</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E7" s="62">
         <f>с17!E7+с20!E7+с21!E7+с22!E7+с39!E7+с44!E7+с55!E7+с56!E7+с61!E7+с83!E7+'с Олг'!E7+ДЦРР5!E7</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F7" s="32">
         <f>с17!F7+с20!F7+с21!F7+с22!F7+с39!F7+с44!F7+с55!F7+с56!F7+с61!F7+с83!F7+'с Олг'!F7+ДЦРР5!F7</f>
@@ -13348,7 +13680,7 @@
       </c>
       <c r="G7" s="33">
         <f>с17!G7+с20!G7+с21!G7+с22!G7+с39!G7+с44!G7+с55!G7+с56!G7+с61!G7+с83!G7+'с Олг'!G7+ДЦРР5!G7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="31">
         <f>с17!H7+с20!H7+с21!H7+с22!H7+с39!H7+с44!H7+с55!H7+с56!H7+с61!H7+с83!H7+'с Олг'!H7+ДЦРР5!H7</f>
@@ -13356,15 +13688,15 @@
       </c>
       <c r="I7" s="32">
         <f>с17!I7+с20!I7+с21!I7+с22!I7+с39!I7+с44!I7+с55!I7+с56!I7+с61!I7+с83!I7+'с Олг'!I7+ДЦРР5!I7</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J7" s="32">
         <f>с17!J7+с20!J7+с21!J7+с22!J7+с39!J7+с44!J7+с55!J7+с56!J7+с61!J7+с83!J7+'с Олг'!J7+ДЦРР5!J7</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K7" s="32">
         <f>с17!K7+с20!K7+с21!K7+с22!K7+с39!K7+с44!K7+с55!K7+с56!K7+с61!K7+с83!K7+'с Олг'!K7+ДЦРР5!K7</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L7" s="32">
         <f>с17!L7+с20!L7+с21!L7+с22!L7+с39!L7+с44!L7+с55!L7+с56!L7+с61!L7+с83!L7+'с Олг'!L7+ДЦРР5!L7</f>
@@ -13372,7 +13704,7 @@
       </c>
       <c r="M7" s="33">
         <f>с17!M7+с20!M7+с21!M7+с22!M7+с39!M7+с44!M7+с55!M7+с56!M7+с61!M7+с83!M7+'с Олг'!M7+ДЦРР5!M7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="31">
         <f>с17!N7+с20!N7+с21!N7+с22!N7+с39!N7+с44!N7+с55!N7+с56!N7+с61!N7+с83!N7+'с Олг'!N7+ДЦРР5!N7</f>
@@ -13384,7 +13716,7 @@
       </c>
       <c r="P7" s="32">
         <f>с17!P7+с20!P7+с21!P7+с22!P7+с39!P7+с44!P7+с55!P7+с56!P7+с61!P7+с83!P7+'с Олг'!P7+ДЦРР5!P7</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="32">
         <f>с17!Q7+с20!Q7+с21!Q7+с22!Q7+с39!Q7+с44!Q7+с55!Q7+с56!Q7+с61!Q7+с83!Q7+'с Олг'!Q7+ДЦРР5!Q7</f>
@@ -13412,7 +13744,7 @@
       </c>
       <c r="W7" s="33">
         <f>с17!W7+с20!W7+с21!W7+с22!W7+с39!W7+с44!W7+с55!W7+с56!W7+с61!W7+с83!W7+'с Олг'!W7+ДЦРР5!W7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" s="31">
         <f>с17!X7+с20!X7+с21!X7+с22!X7+с39!X7+с44!X7+с55!X7+с56!X7+с61!X7+с83!X7+'с Олг'!X7+ДЦРР5!X7</f>
@@ -13432,11 +13764,11 @@
       </c>
       <c r="AB7" s="33">
         <f>с17!AB7+с20!AB7+с21!AB7+с22!AB7+с39!AB7+с44!AB7+с55!AB7+с56!AB7+с61!AB7+с83!AB7+'с Олг'!AB7+ДЦРР5!AB7</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="31">
         <f>с17!AC7+с20!AC7+с21!AC7+с22!AC7+с39!AC7+с44!AC7+с55!AC7+с56!AC7+с61!AC7+с83!AC7+'с Олг'!AC7+ДЦРР5!AC7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="32">
         <f>с17!AD7+с20!AD7+с21!AD7+с22!AD7+с39!AD7+с44!AD7+с55!AD7+с56!AD7+с61!AD7+с83!AD7+'с Олг'!AD7+ДЦРР5!AD7</f>
@@ -13444,7 +13776,7 @@
       </c>
       <c r="AE7" s="32">
         <f>с17!AE7+с20!AE7+с21!AE7+с22!AE7+с39!AE7+с44!AE7+с55!AE7+с56!AE7+с61!AE7+с83!AE7+'с Олг'!AE7+ДЦРР5!AE7</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AF7" s="32">
         <f>с17!AF7+с20!AF7+с21!AF7+с22!AF7+с39!AF7+с44!AF7+с55!AF7+с56!AF7+с61!AF7+с83!AF7+'с Олг'!AF7+ДЦРР5!AF7</f>
@@ -13452,11 +13784,11 @@
       </c>
       <c r="AG7" s="33">
         <f>с17!AG7+с20!AG7+с21!AG7+с22!AG7+с39!AG7+с44!AG7+с55!AG7+с56!AG7+с61!AG7+с83!AG7+'с Олг'!AG7+ДЦРР5!AG7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="31">
         <f>с17!AH7+с20!AH7+с21!AH7+с22!AH7+с39!AH7+с44!AH7+с55!AH7+с56!AH7+с61!AH7+с83!AH7+'с Олг'!AH7+ДЦРР5!AH7</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AI7" s="32">
         <f>с17!AI7+с20!AI7+с21!AI7+с22!AI7+с39!AI7+с44!AI7+с55!AI7+с56!AI7+с61!AI7+с83!AI7+'с Олг'!AI7+ДЦРР5!AI7</f>
@@ -13464,7 +13796,7 @@
       </c>
       <c r="AJ7" s="34">
         <f>с17!AJ7+с20!AJ7+с21!AJ7+с22!AJ7+с39!AJ7+с44!AJ7+с55!AJ7+с56!AJ7+с61!AJ7+с83!AJ7+'с Олг'!AJ7+ДЦРР5!AJ7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="90"/>
     </row>
@@ -13482,11 +13814,11 @@
       </c>
       <c r="D8" s="107">
         <f>с17!D8+с20!D8+с21!D8+с22!D8+с39!D8+с44!D8+с55!D8+с56!D8+с61!D8+с83!D8+'с Олг'!D8+ДЦРР5!D8</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E8" s="108">
         <f>с17!E8+с20!E8+с21!E8+с22!E8+с39!E8+с44!E8+с55!E8+с56!E8+с61!E8+с83!E8+'с Олг'!E8+ДЦРР5!E8</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F8" s="109">
         <f>с17!F8+с20!F8+с21!F8+с22!F8+с39!F8+с44!F8+с55!F8+с56!F8+с61!F8+с83!F8+'с Олг'!F8+ДЦРР5!F8</f>
@@ -13494,15 +13826,15 @@
       </c>
       <c r="G8" s="110">
         <f>с17!G8+с20!G8+с21!G8+с22!G8+с39!G8+с44!G8+с55!G8+с56!G8+с61!G8+с83!G8+'с Олг'!G8+ДЦРР5!G8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="111">
         <f>с17!H8+с20!H8+с21!H8+с22!H8+с39!H8+с44!H8+с55!H8+с56!H8+с61!H8+с83!H8+'с Олг'!H8+ДЦРР5!H8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="109">
         <f>с17!I8+с20!I8+с21!I8+с22!I8+с39!I8+с44!I8+с55!I8+с56!I8+с61!I8+с83!I8+'с Олг'!I8+ДЦРР5!I8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="109">
         <f>с17!J8+с20!J8+с21!J8+с22!J8+с39!J8+с44!J8+с55!J8+с56!J8+с61!J8+с83!J8+'с Олг'!J8+ДЦРР5!J8</f>
@@ -13510,7 +13842,7 @@
       </c>
       <c r="K8" s="109">
         <f>с17!K8+с20!K8+с21!K8+с22!K8+с39!K8+с44!K8+с55!K8+с56!K8+с61!K8+с83!K8+'с Олг'!K8+ДЦРР5!K8</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L8" s="109">
         <f>с17!L8+с20!L8+с21!L8+с22!L8+с39!L8+с44!L8+с55!L8+с56!L8+с61!L8+с83!L8+'с Олг'!L8+ДЦРР5!L8</f>
@@ -13518,11 +13850,11 @@
       </c>
       <c r="M8" s="110">
         <f>с17!M8+с20!M8+с21!M8+с22!M8+с39!M8+с44!M8+с55!M8+с56!M8+с61!M8+с83!M8+'с Олг'!M8+ДЦРР5!M8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="111">
         <f>с17!N8+с20!N8+с21!N8+с22!N8+с39!N8+с44!N8+с55!N8+с56!N8+с61!N8+с83!N8+'с Олг'!N8+ДЦРР5!N8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="109">
         <f>с17!O8+с20!O8+с21!O8+с22!O8+с39!O8+с44!O8+с55!O8+с56!O8+с61!O8+с83!O8+'с Олг'!O8+ДЦРР5!O8</f>
@@ -13530,7 +13862,7 @@
       </c>
       <c r="P8" s="109">
         <f>с17!P8+с20!P8+с21!P8+с22!P8+с39!P8+с44!P8+с55!P8+с56!P8+с61!P8+с83!P8+'с Олг'!P8+ДЦРР5!P8</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="109">
         <f>с17!Q8+с20!Q8+с21!Q8+с22!Q8+с39!Q8+с44!Q8+с55!Q8+с56!Q8+с61!Q8+с83!Q8+'с Олг'!Q8+ДЦРР5!Q8</f>
@@ -13542,7 +13874,7 @@
       </c>
       <c r="S8" s="109">
         <f>с17!S8+с20!S8+с21!S8+с22!S8+с39!S8+с44!S8+с55!S8+с56!S8+с61!S8+с83!S8+'с Олг'!S8+ДЦРР5!S8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="109">
         <f>с17!T8+с20!T8+с21!T8+с22!T8+с39!T8+с44!T8+с55!T8+с56!T8+с61!T8+с83!T8+'с Олг'!T8+ДЦРР5!T8</f>
@@ -13558,7 +13890,7 @@
       </c>
       <c r="W8" s="110">
         <f>с17!W8+с20!W8+с21!W8+с22!W8+с39!W8+с44!W8+с55!W8+с56!W8+с61!W8+с83!W8+'с Олг'!W8+ДЦРР5!W8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="111">
         <f>с17!X8+с20!X8+с21!X8+с22!X8+с39!X8+с44!X8+с55!X8+с56!X8+с61!X8+с83!X8+'с Олг'!X8+ДЦРР5!X8</f>
@@ -13578,19 +13910,19 @@
       </c>
       <c r="AB8" s="110">
         <f>с17!AB8+с20!AB8+с21!AB8+с22!AB8+с39!AB8+с44!AB8+с55!AB8+с56!AB8+с61!AB8+с83!AB8+'с Олг'!AB8+ДЦРР5!AB8</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="111">
         <f>с17!AC8+с20!AC8+с21!AC8+с22!AC8+с39!AC8+с44!AC8+с55!AC8+с56!AC8+с61!AC8+с83!AC8+'с Олг'!AC8+ДЦРР5!AC8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="109">
         <f>с17!AD8+с20!AD8+с21!AD8+с22!AD8+с39!AD8+с44!AD8+с55!AD8+с56!AD8+с61!AD8+с83!AD8+'с Олг'!AD8+ДЦРР5!AD8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="109">
         <f>с17!AE8+с20!AE8+с21!AE8+с22!AE8+с39!AE8+с44!AE8+с55!AE8+с56!AE8+с61!AE8+с83!AE8+'с Олг'!AE8+ДЦРР5!AE8</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AF8" s="109">
         <f>с17!AF8+с20!AF8+с21!AF8+с22!AF8+с39!AF8+с44!AF8+с55!AF8+с56!AF8+с61!AF8+с83!AF8+'с Олг'!AF8+ДЦРР5!AF8</f>
@@ -13598,11 +13930,11 @@
       </c>
       <c r="AG8" s="110">
         <f>с17!AG8+с20!AG8+с21!AG8+с22!AG8+с39!AG8+с44!AG8+с55!AG8+с56!AG8+с61!AG8+с83!AG8+'с Олг'!AG8+ДЦРР5!AG8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="111">
         <f>с17!AH8+с20!AH8+с21!AH8+с22!AH8+с39!AH8+с44!AH8+с55!AH8+с56!AH8+с61!AH8+с83!AH8+'с Олг'!AH8+ДЦРР5!AH8</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AI8" s="109">
         <f>с17!AI8+с20!AI8+с21!AI8+с22!AI8+с39!AI8+с44!AI8+с55!AI8+с56!AI8+с61!AI8+с83!AI8+'с Олг'!AI8+ДЦРР5!AI8</f>
@@ -13610,7 +13942,7 @@
       </c>
       <c r="AJ8" s="112">
         <f>с17!AJ8+с20!AJ8+с21!AJ8+с22!AJ8+с39!AJ8+с44!AJ8+с55!AJ8+с56!AJ8+с61!AJ8+с83!AJ8+'с Олг'!AJ8+ДЦРР5!AJ8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="90"/>
     </row>
@@ -13628,11 +13960,11 @@
       </c>
       <c r="D9" s="30">
         <f>с17!D9+с20!D9+с21!D9+с22!D9+с39!D9+с44!D9+с55!D9+с56!D9+с61!D9+с83!D9+'с Олг'!D9+ДЦРР5!D9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" s="62">
         <f>с17!E9+с20!E9+с21!E9+с22!E9+с39!E9+с44!E9+с55!E9+с56!E9+с61!E9+с83!E9+'с Олг'!E9+ДЦРР5!E9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9" s="32">
         <f>с17!F9+с20!F9+с21!F9+с22!F9+с39!F9+с44!F9+с55!F9+с56!F9+с61!F9+с83!F9+'с Олг'!F9+ДЦРР5!F9</f>
@@ -13648,7 +13980,7 @@
       </c>
       <c r="I9" s="32">
         <f>с17!I9+с20!I9+с21!I9+с22!I9+с39!I9+с44!I9+с55!I9+с56!I9+с61!I9+с83!I9+'с Олг'!I9+ДЦРР5!I9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="32">
         <f>с17!J9+с20!J9+с21!J9+с22!J9+с39!J9+с44!J9+с55!J9+с56!J9+с61!J9+с83!J9+'с Олг'!J9+ДЦРР5!J9</f>
@@ -13656,15 +13988,15 @@
       </c>
       <c r="K9" s="32">
         <f>с17!K9+с20!K9+с21!K9+с22!K9+с39!K9+с44!K9+с55!K9+с56!K9+с61!K9+с83!K9+'с Олг'!K9+ДЦРР5!K9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="32">
         <f>с17!L9+с20!L9+с21!L9+с22!L9+с39!L9+с44!L9+с55!L9+с56!L9+с61!L9+с83!L9+'с Олг'!L9+ДЦРР5!L9</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M9" s="33">
         <f>с17!M9+с20!M9+с21!M9+с22!M9+с39!M9+с44!M9+с55!M9+с56!M9+с61!M9+с83!M9+'с Олг'!M9+ДЦРР5!M9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="31">
         <f>с17!N9+с20!N9+с21!N9+с22!N9+с39!N9+с44!N9+с55!N9+с56!N9+с61!N9+с83!N9+'с Олг'!N9+ДЦРР5!N9</f>
@@ -13672,11 +14004,11 @@
       </c>
       <c r="O9" s="32">
         <f>с17!O9+с20!O9+с21!O9+с22!O9+с39!O9+с44!O9+с55!O9+с56!O9+с61!O9+с83!O9+'с Олг'!O9+ДЦРР5!O9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="32">
         <f>с17!P9+с20!P9+с21!P9+с22!P9+с39!P9+с44!P9+с55!P9+с56!P9+с61!P9+с83!P9+'с Олг'!P9+ДЦРР5!P9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="32">
         <f>с17!Q9+с20!Q9+с21!Q9+с22!Q9+с39!Q9+с44!Q9+с55!Q9+с56!Q9+с61!Q9+с83!Q9+'с Олг'!Q9+ДЦРР5!Q9</f>
@@ -13692,7 +14024,7 @@
       </c>
       <c r="T9" s="32">
         <f>с17!T9+с20!T9+с21!T9+с22!T9+с39!T9+с44!T9+с55!T9+с56!T9+с61!T9+с83!T9+'с Олг'!T9+ДЦРР5!T9</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U9" s="32">
         <f>с17!U9+с20!U9+с21!U9+с22!U9+с39!U9+с44!U9+с55!U9+с56!U9+с61!U9+с83!U9+'с Олг'!U9+ДЦРР5!U9</f>
@@ -13704,7 +14036,7 @@
       </c>
       <c r="W9" s="33">
         <f>с17!W9+с20!W9+с21!W9+с22!W9+с39!W9+с44!W9+с55!W9+с56!W9+с61!W9+с83!W9+'с Олг'!W9+ДЦРР5!W9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="31">
         <f>с17!X9+с20!X9+с21!X9+с22!X9+с39!X9+с44!X9+с55!X9+с56!X9+с61!X9+с83!X9+'с Олг'!X9+ДЦРР5!X9</f>
@@ -13724,7 +14056,7 @@
       </c>
       <c r="AB9" s="33">
         <f>с17!AB9+с20!AB9+с21!AB9+с22!AB9+с39!AB9+с44!AB9+с55!AB9+с56!AB9+с61!AB9+с83!AB9+'с Олг'!AB9+ДЦРР5!AB9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="31">
         <f>с17!AC9+с20!AC9+с21!AC9+с22!AC9+с39!AC9+с44!AC9+с55!AC9+с56!AC9+с61!AC9+с83!AC9+'с Олг'!AC9+ДЦРР5!AC9</f>
@@ -13736,7 +14068,7 @@
       </c>
       <c r="AE9" s="32">
         <f>с17!AE9+с20!AE9+с21!AE9+с22!AE9+с39!AE9+с44!AE9+с55!AE9+с56!AE9+с61!AE9+с83!AE9+'с Олг'!AE9+ДЦРР5!AE9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF9" s="32">
         <f>с17!AF9+с20!AF9+с21!AF9+с22!AF9+с39!AF9+с44!AF9+с55!AF9+с56!AF9+с61!AF9+с83!AF9+'с Олг'!AF9+ДЦРР5!AF9</f>
@@ -13748,15 +14080,15 @@
       </c>
       <c r="AH9" s="31">
         <f>с17!AH9+с20!AH9+с21!AH9+с22!AH9+с39!AH9+с44!AH9+с55!AH9+с56!AH9+с61!AH9+с83!AH9+'с Олг'!AH9+ДЦРР5!AH9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="32">
         <f>с17!AI9+с20!AI9+с21!AI9+с22!AI9+с39!AI9+с44!AI9+с55!AI9+с56!AI9+с61!AI9+с83!AI9+'с Олг'!AI9+ДЦРР5!AI9</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ9" s="34">
         <f>с17!AJ9+с20!AJ9+с21!AJ9+с22!AJ9+с39!AJ9+с44!AJ9+с55!AJ9+с56!AJ9+с61!AJ9+с83!AJ9+'с Олг'!AJ9+ДЦРР5!AJ9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="90"/>
     </row>
@@ -13774,11 +14106,11 @@
       </c>
       <c r="D10" s="107">
         <f>с17!D10+с20!D10+с21!D10+с22!D10+с39!D10+с44!D10+с55!D10+с56!D10+с61!D10+с83!D10+'с Олг'!D10+ДЦРР5!D10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="108">
         <f>с17!E10+с20!E10+с21!E10+с22!E10+с39!E10+с44!E10+с55!E10+с56!E10+с61!E10+с83!E10+'с Олг'!E10+ДЦРР5!E10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="109">
         <f>с17!F10+с20!F10+с21!F10+с22!F10+с39!F10+с44!F10+с55!F10+с56!F10+с61!F10+с83!F10+'с Олг'!F10+ДЦРР5!F10</f>
@@ -13806,7 +14138,7 @@
       </c>
       <c r="L10" s="109">
         <f>с17!L10+с20!L10+с21!L10+с22!L10+с39!L10+с44!L10+с55!L10+с56!L10+с61!L10+с83!L10+'с Олг'!L10+ДЦРР5!L10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="110">
         <f>с17!M10+с20!M10+с21!M10+с22!M10+с39!M10+с44!M10+с55!M10+с56!M10+с61!M10+с83!M10+'с Олг'!M10+ДЦРР5!M10</f>
@@ -13838,7 +14170,7 @@
       </c>
       <c r="T10" s="109">
         <f>с17!T10+с20!T10+с21!T10+с22!T10+с39!T10+с44!T10+с55!T10+с56!T10+с61!T10+с83!T10+'с Олг'!T10+ДЦРР5!T10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="109">
         <f>с17!U10+с20!U10+с21!U10+с22!U10+с39!U10+с44!U10+с55!U10+с56!U10+с61!U10+с83!U10+'с Олг'!U10+ДЦРР5!U10</f>
@@ -13870,7 +14202,7 @@
       </c>
       <c r="AB10" s="110">
         <f>с17!AB10+с20!AB10+с21!AB10+с22!AB10+с39!AB10+с44!AB10+с55!AB10+с56!AB10+с61!AB10+с83!AB10+'с Олг'!AB10+ДЦРР5!AB10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="111">
         <f>с17!AC10+с20!AC10+с21!AC10+с22!AC10+с39!AC10+с44!AC10+с55!AC10+с56!AC10+с61!AC10+с83!AC10+'с Олг'!AC10+ДЦРР5!AC10</f>
@@ -13882,7 +14214,7 @@
       </c>
       <c r="AE10" s="109">
         <f>с17!AE10+с20!AE10+с21!AE10+с22!AE10+с39!AE10+с44!AE10+с55!AE10+с56!AE10+с61!AE10+с83!AE10+'с Олг'!AE10+ДЦРР5!AE10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="109">
         <f>с17!AF10+с20!AF10+с21!AF10+с22!AF10+с39!AF10+с44!AF10+с55!AF10+с56!AF10+с61!AF10+с83!AF10+'с Олг'!AF10+ДЦРР5!AF10</f>
@@ -13898,7 +14230,7 @@
       </c>
       <c r="AI10" s="109">
         <f>с17!AI10+с20!AI10+с21!AI10+с22!AI10+с39!AI10+с44!AI10+с55!AI10+с56!AI10+с61!AI10+с83!AI10+'с Олг'!AI10+ДЦРР5!AI10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="112">
         <f>с17!AJ10+с20!AJ10+с21!AJ10+с22!AJ10+с39!AJ10+с44!AJ10+с55!AJ10+с56!AJ10+с61!AJ10+с83!AJ10+'с Олг'!AJ10+ДЦРР5!AJ10</f>
@@ -26516,12 +26848,9 @@
     <col min="13" max="13" width="4.28515625" customWidth="1"/>
     <col min="14" max="22" width="5.28515625" customWidth="1"/>
     <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="27" width="5.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" customWidth="1"/>
-    <col min="29" max="32" width="5.28515625" customWidth="1"/>
+    <col min="24" max="32" width="5.28515625" customWidth="1"/>
     <col min="33" max="33" width="4.28515625" customWidth="1"/>
-    <col min="34" max="35" width="5.28515625" customWidth="1"/>
-    <col min="36" max="36" width="4.28515625" customWidth="1"/>
+    <col min="34" max="36" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26740,7 +27069,7 @@
       </c>
       <c r="D4" s="25">
         <f>Участки!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="61">
         <f>Участки!E4</f>
@@ -26752,7 +27081,7 @@
       </c>
       <c r="G4" s="28">
         <f>Участки!G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="26">
         <f>Участки!H4</f>
@@ -26776,7 +27105,7 @@
       </c>
       <c r="M4" s="28">
         <f>Участки!M4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="26">
         <f>Участки!N4</f>
@@ -26816,7 +27145,7 @@
       </c>
       <c r="W4" s="28">
         <f>Участки!W4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="26">
         <f>Участки!X4</f>
@@ -26836,11 +27165,11 @@
       </c>
       <c r="AB4" s="28">
         <f>Участки!AB4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="26">
         <f>Участки!AC4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="27">
         <f>Участки!AD4</f>
@@ -26868,14 +27197,14 @@
       </c>
       <c r="AJ4" s="29">
         <f>Участки!AJ4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="131"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f t="shared" ref="A5:A24" si="0">IF(AND(D5=SUM(E5:G5),D5=SUM(H5:M5),D5=SUM(N5:W5),D5=SUM(X5:AB5),D5=SUM(AC5:AG5),D5=SUM(AH5:AJ5)),"V","X")</f>
-        <v>X</v>
+        <v>V</v>
       </c>
       <c r="B5" s="328"/>
       <c r="C5" s="15" t="s">
@@ -26967,7 +27296,7 @@
       </c>
       <c r="Y5" s="32">
         <f>Участки!Y5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="32">
         <f>Участки!Z5</f>
@@ -26979,11 +27308,11 @@
       </c>
       <c r="AB5" s="33">
         <f>Участки!AB5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="31">
         <f>Участки!AC5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="32">
         <f>Участки!AD5</f>
@@ -26991,7 +27320,7 @@
       </c>
       <c r="AE5" s="32">
         <f>Участки!AE5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="32">
         <f>Участки!AF5</f>
@@ -27026,11 +27355,11 @@
       </c>
       <c r="D6" s="35">
         <f>Участки!D6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="63">
         <f>Участки!E6</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" s="37">
         <f>Участки!F6</f>
@@ -27038,15 +27367,15 @@
       </c>
       <c r="G6" s="38">
         <f>Участки!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="36">
         <f>Участки!H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="37">
         <f>Участки!I6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="37">
         <f>Участки!J6</f>
@@ -27062,15 +27391,15 @@
       </c>
       <c r="M6" s="38">
         <f>Участки!M6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="36">
         <f>Участки!N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="37">
         <f>Участки!O6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P6" s="37">
         <f>Участки!P6</f>
@@ -27102,19 +27431,19 @@
       </c>
       <c r="W6" s="38">
         <f>Участки!W6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="36">
         <f>Участки!X6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="37">
         <f>Участки!Y6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="37">
         <f>Участки!Z6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="37">
         <f>Участки!AA6</f>
@@ -27122,7 +27451,7 @@
       </c>
       <c r="AB6" s="38">
         <f>Участки!AB6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="36">
         <f>Участки!AC6</f>
@@ -27130,19 +27459,19 @@
       </c>
       <c r="AD6" s="37">
         <f>Участки!AD6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="37">
         <f>Участки!AE6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF6" s="37">
         <f>Участки!AF6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="38">
         <f>Участки!AG6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="36">
         <f>Участки!AH6</f>
@@ -27154,7 +27483,7 @@
       </c>
       <c r="AJ6" s="39">
         <f>Участки!AJ6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="131"/>
     </row>
@@ -27172,11 +27501,11 @@
       </c>
       <c r="D7" s="30">
         <f>Участки!D7</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" s="62">
         <f>Участки!E7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="32">
         <f>Участки!F7</f>
@@ -27184,7 +27513,7 @@
       </c>
       <c r="G7" s="33">
         <f>Участки!G7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="31">
         <f>Участки!H7</f>
@@ -27192,7 +27521,7 @@
       </c>
       <c r="I7" s="32">
         <f>Участки!I7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="32">
         <f>Участки!J7</f>
@@ -27208,7 +27537,7 @@
       </c>
       <c r="M7" s="33">
         <f>Участки!M7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="31">
         <f>Участки!N7</f>
@@ -27216,7 +27545,7 @@
       </c>
       <c r="O7" s="32">
         <f>Участки!O7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="32">
         <f>Участки!P7</f>
@@ -27248,15 +27577,15 @@
       </c>
       <c r="W7" s="33">
         <f>Участки!W7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="31">
         <f>Участки!X7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="32">
         <f>Участки!Y7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="32">
         <f>Участки!Z7</f>
@@ -27268,7 +27597,7 @@
       </c>
       <c r="AB7" s="33">
         <f>Участки!AB7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="31">
         <f>Участки!AC7</f>
@@ -27280,19 +27609,19 @@
       </c>
       <c r="AE7" s="32">
         <f>Участки!AE7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="32">
         <f>Участки!AF7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="33">
         <f>Участки!AG7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="31">
         <f>Участки!AH7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI7" s="32">
         <f>Участки!AI7</f>
@@ -27300,7 +27629,7 @@
       </c>
       <c r="AJ7" s="34">
         <f>Участки!AJ7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="131"/>
     </row>
@@ -27315,11 +27644,11 @@
       </c>
       <c r="D8" s="40">
         <f>Участки!D8+Сады!D4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="71">
         <f>Участки!E8+Сады!E4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8" s="42">
         <f>Участки!F8+Сады!F4</f>
@@ -27335,11 +27664,11 @@
       </c>
       <c r="I8" s="42">
         <f>Участки!I8+Сады!I4</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" s="42">
         <f>Участки!J8+Сады!J4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="42">
         <f>Участки!K8+Сады!K4</f>
@@ -27359,11 +27688,11 @@
       </c>
       <c r="O8" s="42">
         <f>Участки!O8+Сады!O4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="42">
         <f>Участки!P8+Сады!P4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="42">
         <f>Участки!Q8+Сады!Q4</f>
@@ -27395,7 +27724,7 @@
       </c>
       <c r="X8" s="41">
         <f>Участки!X8+Сады!X4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="42">
         <f>Участки!Y8+Сады!Y4</f>
@@ -27407,11 +27736,11 @@
       </c>
       <c r="AA8" s="42">
         <f>Участки!AA8+Сады!AA4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="43">
         <f>Участки!AB8+Сады!AB4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="41">
         <f>Участки!AC8+Сады!AC4</f>
@@ -27419,15 +27748,15 @@
       </c>
       <c r="AD8" s="42">
         <f>Участки!AD8+Сады!AD4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="42">
         <f>Участки!AE8+Сады!AE4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="42">
         <f>Участки!AF8+Сады!AF4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="43">
         <f>Участки!AG8+Сады!AG4</f>
@@ -27435,7 +27764,7 @@
       </c>
       <c r="AH8" s="41">
         <f>Участки!AH8+Сады!AH4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI8" s="42">
         <f>Участки!AI8+Сады!AI4</f>
@@ -27461,11 +27790,11 @@
       </c>
       <c r="D9" s="30">
         <f>Участки!D9+Сады!D5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E9" s="62">
         <f>Участки!E9+Сады!E5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F9" s="32">
         <f>Участки!F9+Сады!F5</f>
@@ -27481,7 +27810,7 @@
       </c>
       <c r="I9" s="32">
         <f>Участки!I9+Сады!I5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J9" s="32">
         <f>Участки!J9+Сады!J5</f>
@@ -27509,7 +27838,7 @@
       </c>
       <c r="P9" s="32">
         <f>Участки!P9+Сады!P5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="32">
         <f>Участки!Q9+Сады!Q5</f>
@@ -27557,7 +27886,7 @@
       </c>
       <c r="AB9" s="33">
         <f>Участки!AB9+Сады!AB5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="31">
         <f>Участки!AC9+Сады!AC5</f>
@@ -27569,7 +27898,7 @@
       </c>
       <c r="AE9" s="32">
         <f>Участки!AE9+Сады!AE5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AF9" s="32">
         <f>Участки!AF9+Сады!AF5</f>
@@ -27581,7 +27910,7 @@
       </c>
       <c r="AH9" s="31">
         <f>Участки!AH9+Сады!AH5</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AI9" s="32">
         <f>Участки!AI9+Сады!AI5</f>
@@ -27607,11 +27936,11 @@
       </c>
       <c r="D10" s="35">
         <f>Участки!D10+Сады!D6+ДетДом!D4</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E10" s="63">
         <f>Участки!E10+Сады!E6+ДетДом!E4</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F10" s="37">
         <f>Участки!F10+Сады!F6+ДетДом!F4</f>
@@ -27619,7 +27948,7 @@
       </c>
       <c r="G10" s="38">
         <f>Участки!G10+Сады!G6+ДетДом!G4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="36">
         <f>Участки!H10+Сады!H6+ДетДом!H4</f>
@@ -27627,7 +27956,7 @@
       </c>
       <c r="I10" s="37">
         <f>Участки!I10+Сады!I6+ДетДом!I4</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J10" s="37">
         <f>Участки!J10+Сады!J6+ДетДом!J4</f>
@@ -27643,7 +27972,7 @@
       </c>
       <c r="M10" s="38">
         <f>Участки!M10+Сады!M6+ДетДом!M4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="36">
         <f>Участки!N10+Сады!N6+ДетДом!N4</f>
@@ -27651,11 +27980,11 @@
       </c>
       <c r="O10" s="37">
         <f>Участки!O10+Сады!O6+ДетДом!O4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="37">
         <f>Участки!P10+Сады!P6+ДетДом!P4</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="37">
         <f>Участки!Q10+Сады!Q6+ДетДом!Q4</f>
@@ -27667,7 +27996,7 @@
       </c>
       <c r="S10" s="37">
         <f>Участки!S10+Сады!S6+ДетДом!S4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="37">
         <f>Участки!T10+Сады!T6+ДетДом!T4</f>
@@ -27683,7 +28012,7 @@
       </c>
       <c r="W10" s="38">
         <f>Участки!W10+Сады!W6+ДетДом!W4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="36">
         <f>Участки!X10+Сады!X6+ДетДом!X4</f>
@@ -27703,11 +28032,11 @@
       </c>
       <c r="AB10" s="38">
         <f>Участки!AB10+Сады!AB6+ДетДом!AB4</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="AC10" s="36">
         <f>Участки!AC10+Сады!AC6+ДетДом!AC4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="37">
         <f>Участки!AD10+Сады!AD6+ДетДом!AD4</f>
@@ -27715,7 +28044,7 @@
       </c>
       <c r="AE10" s="37">
         <f>Участки!AE10+Сады!AE6+ДетДом!AE4</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF10" s="37">
         <f>Участки!AF10+Сады!AF6+ДетДом!AF4</f>
@@ -27723,11 +28052,11 @@
       </c>
       <c r="AG10" s="38">
         <f>Участки!AG10+Сады!AG6+ДетДом!AG4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="36">
         <f>Участки!AH10+Сады!AH6+ДетДом!AH4</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AI10" s="37">
         <f>Участки!AI10+Сады!AI6+ДетДом!AI4</f>
@@ -27735,7 +28064,7 @@
       </c>
       <c r="AJ10" s="39">
         <f>Участки!AJ10+Сады!AJ6+ДетДом!AJ4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="131"/>
     </row>
@@ -27753,11 +28082,11 @@
       </c>
       <c r="D11" s="30">
         <f>Участки!D11+Сады!D7+ДетДом!D5</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E11" s="62">
         <f>Участки!E11+Сады!E7+ДетДом!E5</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F11" s="32">
         <f>Участки!F11+Сады!F7+ДетДом!F5</f>
@@ -27765,7 +28094,7 @@
       </c>
       <c r="G11" s="33">
         <f>Участки!G11+Сады!G7+ДетДом!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="31">
         <f>Участки!H11+Сады!H7+ДетДом!H5</f>
@@ -27773,15 +28102,15 @@
       </c>
       <c r="I11" s="32">
         <f>Участки!I11+Сады!I7+ДетДом!I5</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J11" s="32">
         <f>Участки!J11+Сады!J7+ДетДом!J5</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K11" s="32">
         <f>Участки!K11+Сады!K7+ДетДом!K5</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L11" s="32">
         <f>Участки!L11+Сады!L7+ДетДом!L5</f>
@@ -27789,7 +28118,7 @@
       </c>
       <c r="M11" s="33">
         <f>Участки!M11+Сады!M7+ДетДом!M5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="31">
         <f>Участки!N11+Сады!N7+ДетДом!N5</f>
@@ -27801,7 +28130,7 @@
       </c>
       <c r="P11" s="32">
         <f>Участки!P11+Сады!P7+ДетДом!P5</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="32">
         <f>Участки!Q11+Сады!Q7+ДетДом!Q5</f>
@@ -27829,7 +28158,7 @@
       </c>
       <c r="W11" s="33">
         <f>Участки!W11+Сады!W7+ДетДом!W5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" s="31">
         <f>Участки!X11+Сады!X7+ДетДом!X5</f>
@@ -27849,11 +28178,11 @@
       </c>
       <c r="AB11" s="33">
         <f>Участки!AB11+Сады!AB7+ДетДом!AB5</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AC11" s="31">
         <f>Участки!AC11+Сады!AC7+ДетДом!AC5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="32">
         <f>Участки!AD11+Сады!AD7+ДетДом!AD5</f>
@@ -27861,7 +28190,7 @@
       </c>
       <c r="AE11" s="32">
         <f>Участки!AE11+Сады!AE7+ДетДом!AE5</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AF11" s="32">
         <f>Участки!AF11+Сады!AF7+ДетДом!AF5</f>
@@ -27869,11 +28198,11 @@
       </c>
       <c r="AG11" s="33">
         <f>Участки!AG11+Сады!AG7+ДетДом!AG5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="31">
         <f>Участки!AH11+Сады!AH7+ДетДом!AH5</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AI11" s="32">
         <f>Участки!AI11+Сады!AI7+ДетДом!AI5</f>
@@ -27881,7 +28210,7 @@
       </c>
       <c r="AJ11" s="34">
         <f>Участки!AJ11+Сады!AJ7+ДетДом!AJ5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="131"/>
     </row>
@@ -27899,11 +28228,11 @@
       </c>
       <c r="D12" s="35">
         <f>Участки!D12+Сады!D8+ДетДом!D6</f>
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E12" s="63">
         <f>Участки!E12+Сады!E8+ДетДом!E6</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F12" s="37">
         <f>Участки!F12+Сады!F8+ДетДом!F6</f>
@@ -27911,15 +28240,15 @@
       </c>
       <c r="G12" s="38">
         <f>Участки!G12+Сады!G8+ДетДом!G6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="36">
         <f>Участки!H12+Сады!H8+ДетДом!H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="37">
         <f>Участки!I12+Сады!I8+ДетДом!I6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="37">
         <f>Участки!J12+Сады!J8+ДетДом!J6</f>
@@ -27927,7 +28256,7 @@
       </c>
       <c r="K12" s="37">
         <f>Участки!K12+Сады!K8+ДетДом!K6</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L12" s="37">
         <f>Участки!L12+Сады!L8+ДетДом!L6</f>
@@ -27935,11 +28264,11 @@
       </c>
       <c r="M12" s="38">
         <f>Участки!M12+Сады!M8+ДетДом!M6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="36">
         <f>Участки!N12+Сады!N8+ДетДом!N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="37">
         <f>Участки!O12+Сады!O8+ДетДом!O6</f>
@@ -27947,7 +28276,7 @@
       </c>
       <c r="P12" s="37">
         <f>Участки!P12+Сады!P8+ДетДом!P6</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="37">
         <f>Участки!Q12+Сады!Q8+ДетДом!Q6</f>
@@ -27959,7 +28288,7 @@
       </c>
       <c r="S12" s="37">
         <f>Участки!S12+Сады!S8+ДетДом!S6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="37">
         <f>Участки!T12+Сады!T8+ДетДом!T6</f>
@@ -27975,7 +28304,7 @@
       </c>
       <c r="W12" s="38">
         <f>Участки!W12+Сады!W8+ДетДом!W6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" s="36">
         <f>Участки!X12+Сады!X8+ДетДом!X6</f>
@@ -27995,19 +28324,19 @@
       </c>
       <c r="AB12" s="38">
         <f>Участки!AB12+Сады!AB8+ДетДом!AB6</f>
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AC12" s="36">
         <f>Участки!AC12+Сады!AC8+ДетДом!AC6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="37">
         <f>Участки!AD12+Сады!AD8+ДетДом!AD6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="37">
         <f>Участки!AE12+Сады!AE8+ДетДом!AE6</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AF12" s="37">
         <f>Участки!AF12+Сады!AF8+ДетДом!AF6</f>
@@ -28015,11 +28344,11 @@
       </c>
       <c r="AG12" s="38">
         <f>Участки!AG12+Сады!AG8+ДетДом!AG6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH12" s="36">
         <f>Участки!AH12+Сады!AH8+ДетДом!AH6</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AI12" s="37">
         <f>Участки!AI12+Сады!AI8+ДетДом!AI6</f>
@@ -28027,7 +28356,7 @@
       </c>
       <c r="AJ12" s="39">
         <f>Участки!AJ12+Сады!AJ8+ДетДом!AJ6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK12" s="131"/>
     </row>
@@ -28045,11 +28374,11 @@
       </c>
       <c r="D13" s="30">
         <f>Участки!D13+Сады!D9+Школы!D4+ДетДом!D7</f>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E13" s="62">
         <f>Участки!E13+Сады!E9+Школы!E4+ДетДом!E7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="32">
         <f>Участки!F13+Сады!F9+Школы!F4+ДетДом!F7</f>
@@ -28065,7 +28394,7 @@
       </c>
       <c r="I13" s="32">
         <f>Участки!I13+Сады!I9+Школы!I4+ДетДом!I7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="32">
         <f>Участки!J13+Сады!J9+Школы!J4+ДетДом!J7</f>
@@ -28073,15 +28402,15 @@
       </c>
       <c r="K13" s="32">
         <f>Участки!K13+Сады!K9+Школы!K4+ДетДом!K7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="32">
         <f>Участки!L13+Сады!L9+Школы!L4+ДетДом!L7</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M13" s="33">
         <f>Участки!M13+Сады!M9+Школы!M4+ДетДом!M7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="31">
         <f>Участки!N13+Сады!N9+Школы!N4+ДетДом!N7</f>
@@ -28089,11 +28418,11 @@
       </c>
       <c r="O13" s="32">
         <f>Участки!O13+Сады!O9+Школы!O4+ДетДом!O7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="32">
         <f>Участки!P13+Сады!P9+Школы!P4+ДетДом!P7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="32">
         <f>Участки!Q13+Сады!Q9+Школы!Q4+ДетДом!Q7</f>
@@ -28109,7 +28438,7 @@
       </c>
       <c r="T13" s="32">
         <f>Участки!T13+Сады!T9+Школы!T4+ДетДом!T7</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U13" s="32">
         <f>Участки!U13+Сады!U9+Школы!U4+ДетДом!U7</f>
@@ -28121,7 +28450,7 @@
       </c>
       <c r="W13" s="33">
         <f>Участки!W13+Сады!W9+Школы!W4+ДетДом!W7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="31">
         <f>Участки!X13+Сады!X9+Школы!X4+ДетДом!X7</f>
@@ -28141,7 +28470,7 @@
       </c>
       <c r="AB13" s="33">
         <f>Участки!AB13+Сады!AB9+Школы!AB4+ДетДом!AB7</f>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="AC13" s="31">
         <f>Участки!AC13+Сады!AC9+Школы!AC4+ДетДом!AC7</f>
@@ -28153,7 +28482,7 @@
       </c>
       <c r="AE13" s="32">
         <f>Участки!AE13+Сады!AE9+Школы!AE4+ДетДом!AE7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="32">
         <f>Участки!AF13+Сады!AF9+Школы!AF4+ДетДом!AF7</f>
@@ -28165,15 +28494,15 @@
       </c>
       <c r="AH13" s="31">
         <f>Участки!AH13+Сады!AH9+Школы!AH4+ДетДом!AH7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="32">
         <f>Участки!AI13+Сады!AI9+Школы!AI4+ДетДом!AI7</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ13" s="34">
         <f>Участки!AJ13+Сады!AJ9+Школы!AJ4+ДетДом!AJ7</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK13" s="131"/>
     </row>
@@ -28191,11 +28520,11 @@
       </c>
       <c r="D14" s="35">
         <f>Участки!D14+Сады!D10+Школы!D5+ДетДом!D8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="63">
         <f>Участки!E14+Сады!E10+Школы!E5+ДетДом!E8</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f>Участки!F14+Сады!F10+Школы!F5+ДетДом!F8</f>
@@ -28203,7 +28532,7 @@
       </c>
       <c r="G14" s="38">
         <f>Участки!G14+Сады!G10+Школы!G5+ДетДом!G8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="36">
         <f>Участки!H14+Сады!H10+Школы!H5+ДетДом!H8</f>
@@ -28223,11 +28552,11 @@
       </c>
       <c r="L14" s="37">
         <f>Участки!L14+Сады!L10+Школы!L5+ДетДом!L8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="38">
         <f>Участки!M14+Сады!M10+Школы!M5+ДетДом!M8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="36">
         <f>Участки!N14+Сады!N10+Школы!N5+ДетДом!N8</f>
@@ -28255,7 +28584,7 @@
       </c>
       <c r="T14" s="37">
         <f>Участки!T14+Сады!T10+Школы!T5+ДетДом!T8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="37">
         <f>Участки!U14+Сады!U10+Школы!U5+ДетДом!U8</f>
@@ -28267,7 +28596,7 @@
       </c>
       <c r="W14" s="38">
         <f>Участки!W14+Сады!W10+Школы!W5+ДетДом!W8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="36">
         <f>Участки!X14+Сады!X10+Школы!X5+ДетДом!X8</f>
@@ -28287,7 +28616,7 @@
       </c>
       <c r="AB14" s="38">
         <f>Участки!AB14+Сады!AB10+Школы!AB5+ДетДом!AB8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="36">
         <f>Участки!AC14+Сады!AC10+Школы!AC5+ДетДом!AC8</f>
@@ -28299,7 +28628,7 @@
       </c>
       <c r="AE14" s="37">
         <f>Участки!AE14+Сады!AE10+Школы!AE5+ДетДом!AE8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="37">
         <f>Участки!AF14+Сады!AF10+Школы!AF5+ДетДом!AF8</f>
@@ -28307,7 +28636,7 @@
       </c>
       <c r="AG14" s="38">
         <f>Участки!AG14+Сады!AG10+Школы!AG5+ДетДом!AG8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="36">
         <f>Участки!AH14+Сады!AH10+Школы!AH5+ДетДом!AH8</f>
@@ -28315,11 +28644,11 @@
       </c>
       <c r="AI14" s="37">
         <f>Участки!AI14+Сады!AI10+Школы!AI5+ДетДом!AI8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="39">
         <f>Участки!AJ14+Сады!AJ10+Школы!AJ5+ДетДом!AJ8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="131"/>
     </row>
@@ -29791,7 +30120,7 @@
       <c r="C25" s="131"/>
       <c r="D25" s="131">
         <f>SUM(D4:D24)</f>
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="E25" s="131"/>
       <c r="F25" s="131"/>
@@ -34895,8 +35224,8 @@
   </sheetPr>
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35135,16 +35464,22 @@
       <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="148">
+        <v>1</v>
+      </c>
       <c r="E4" s="149"/>
       <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
+      <c r="G4" s="151">
+        <v>1</v>
+      </c>
       <c r="H4" s="149"/>
       <c r="I4" s="150"/>
       <c r="J4" s="150"/>
       <c r="K4" s="150"/>
       <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
+      <c r="M4" s="151">
+        <v>1</v>
+      </c>
       <c r="N4" s="149"/>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
@@ -35154,25 +35489,33 @@
       <c r="T4" s="150"/>
       <c r="U4" s="150"/>
       <c r="V4" s="150"/>
-      <c r="W4" s="151"/>
+      <c r="W4" s="151">
+        <v>1</v>
+      </c>
       <c r="X4" s="149"/>
       <c r="Y4" s="150"/>
       <c r="Z4" s="150"/>
       <c r="AA4" s="150"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="149"/>
+      <c r="AB4" s="151">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="149">
+        <v>1</v>
+      </c>
       <c r="AD4" s="150"/>
       <c r="AE4" s="150"/>
       <c r="AF4" s="150"/>
       <c r="AG4" s="151"/>
       <c r="AH4" s="149"/>
       <c r="AI4" s="150"/>
-      <c r="AJ4" s="152"/>
+      <c r="AJ4" s="152">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f t="shared" ref="A5:A24" si="0">IF(AND(D5=SUM(E5:G5),D5=SUM(H5:M5),D5=SUM(N5:W5),D5=SUM(X5:AB5),D5=SUM(AC5:AG5),D5=SUM(AH5:AJ5)),"V","X")</f>
-        <v>X</v>
+        <v>V</v>
       </c>
       <c r="B5" s="238"/>
       <c r="C5" s="15" t="s">
@@ -35213,13 +35556,21 @@
         <v>4</v>
       </c>
       <c r="X5" s="154"/>
-      <c r="Y5" s="155"/>
+      <c r="Y5" s="155">
+        <v>3</v>
+      </c>
       <c r="Z5" s="155"/>
       <c r="AA5" s="155"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="154"/>
+      <c r="AB5" s="156">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="154">
+        <v>4</v>
+      </c>
       <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AE5" s="155">
+        <v>3</v>
+      </c>
       <c r="AF5" s="155"/>
       <c r="AG5" s="156"/>
       <c r="AH5" s="154"/>
@@ -35237,18 +35588,34 @@
       <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
+      <c r="D6" s="158">
+        <v>10</v>
+      </c>
+      <c r="E6" s="159">
+        <v>9</v>
+      </c>
       <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="G6" s="161">
+        <v>1</v>
+      </c>
+      <c r="H6" s="159">
+        <v>1</v>
+      </c>
+      <c r="I6" s="160">
+        <v>8</v>
+      </c>
       <c r="J6" s="160"/>
       <c r="K6" s="160"/>
       <c r="L6" s="160"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
+      <c r="M6" s="161">
+        <v>1</v>
+      </c>
+      <c r="N6" s="159">
+        <v>1</v>
+      </c>
+      <c r="O6" s="160">
+        <v>8</v>
+      </c>
       <c r="P6" s="160"/>
       <c r="Q6" s="160"/>
       <c r="R6" s="160"/>
@@ -35256,20 +35623,40 @@
       <c r="T6" s="160"/>
       <c r="U6" s="160"/>
       <c r="V6" s="160"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
+      <c r="W6" s="161">
+        <v>1</v>
+      </c>
+      <c r="X6" s="159">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="160">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="160">
+        <v>3</v>
+      </c>
       <c r="AA6" s="160"/>
-      <c r="AB6" s="161"/>
+      <c r="AB6" s="161">
+        <v>1</v>
+      </c>
       <c r="AC6" s="159"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="161"/>
+      <c r="AD6" s="160">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="160">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="160">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="161">
+        <v>1</v>
+      </c>
       <c r="AH6" s="159"/>
       <c r="AI6" s="160"/>
-      <c r="AJ6" s="162"/>
+      <c r="AJ6" s="162">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
@@ -35283,18 +35670,30 @@
       <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="163">
+        <v>11</v>
+      </c>
+      <c r="E7" s="164">
+        <v>10</v>
+      </c>
       <c r="F7" s="165"/>
-      <c r="G7" s="166"/>
+      <c r="G7" s="166">
+        <v>1</v>
+      </c>
       <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
+      <c r="I7" s="165">
+        <v>10</v>
+      </c>
       <c r="J7" s="165"/>
       <c r="K7" s="165"/>
       <c r="L7" s="165"/>
-      <c r="M7" s="166"/>
+      <c r="M7" s="166">
+        <v>1</v>
+      </c>
       <c r="N7" s="164"/>
-      <c r="O7" s="165"/>
+      <c r="O7" s="165">
+        <v>10</v>
+      </c>
       <c r="P7" s="165"/>
       <c r="Q7" s="165"/>
       <c r="R7" s="165"/>
@@ -35302,20 +35701,38 @@
       <c r="T7" s="165"/>
       <c r="U7" s="165"/>
       <c r="V7" s="165"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="165"/>
+      <c r="W7" s="166">
+        <v>1</v>
+      </c>
+      <c r="X7" s="164">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="165">
+        <v>1</v>
+      </c>
       <c r="Z7" s="165"/>
       <c r="AA7" s="165"/>
-      <c r="AB7" s="166"/>
+      <c r="AB7" s="166">
+        <v>5</v>
+      </c>
       <c r="AC7" s="164"/>
       <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="164"/>
+      <c r="AE7" s="165">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="165">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="166">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="164">
+        <v>9</v>
+      </c>
       <c r="AI7" s="165"/>
-      <c r="AJ7" s="167"/>
+      <c r="AJ7" s="167">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
@@ -35326,19 +35743,31 @@
       <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
+      <c r="D8" s="168">
+        <v>15</v>
+      </c>
+      <c r="E8" s="169">
+        <v>15</v>
+      </c>
       <c r="F8" s="170"/>
       <c r="G8" s="171"/>
       <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
+      <c r="I8" s="170">
+        <v>14</v>
+      </c>
+      <c r="J8" s="170">
+        <v>1</v>
+      </c>
       <c r="K8" s="170"/>
       <c r="L8" s="170"/>
       <c r="M8" s="171"/>
       <c r="N8" s="169"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
+      <c r="O8" s="170">
+        <v>2</v>
+      </c>
+      <c r="P8" s="170">
+        <v>13</v>
+      </c>
       <c r="Q8" s="170"/>
       <c r="R8" s="170"/>
       <c r="S8" s="170"/>
@@ -35346,17 +35775,31 @@
       <c r="U8" s="170"/>
       <c r="V8" s="170"/>
       <c r="W8" s="171"/>
-      <c r="X8" s="169"/>
+      <c r="X8" s="169">
+        <v>2</v>
+      </c>
       <c r="Y8" s="170"/>
       <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="171"/>
+      <c r="AA8" s="170">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="171">
+        <v>12</v>
+      </c>
       <c r="AC8" s="169"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170"/>
+      <c r="AD8" s="170">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="170">
+        <v>13</v>
+      </c>
+      <c r="AF8" s="170">
+        <v>1</v>
+      </c>
       <c r="AG8" s="171"/>
-      <c r="AH8" s="169"/>
+      <c r="AH8" s="169">
+        <v>15</v>
+      </c>
       <c r="AI8" s="170"/>
       <c r="AJ8" s="172"/>
     </row>
@@ -35372,19 +35815,27 @@
       <c r="C9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
+      <c r="D9" s="153">
+        <v>11</v>
+      </c>
+      <c r="E9" s="154">
+        <v>11</v>
+      </c>
       <c r="F9" s="155"/>
       <c r="G9" s="156"/>
       <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
+      <c r="I9" s="155">
+        <v>11</v>
+      </c>
       <c r="J9" s="155"/>
       <c r="K9" s="155"/>
       <c r="L9" s="155"/>
       <c r="M9" s="156"/>
       <c r="N9" s="154"/>
       <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
+      <c r="P9" s="155">
+        <v>11</v>
+      </c>
       <c r="Q9" s="155"/>
       <c r="R9" s="155"/>
       <c r="S9" s="155"/>
@@ -35396,13 +35847,19 @@
       <c r="Y9" s="155"/>
       <c r="Z9" s="155"/>
       <c r="AA9" s="155"/>
-      <c r="AB9" s="156"/>
+      <c r="AB9" s="156">
+        <v>11</v>
+      </c>
       <c r="AC9" s="154"/>
       <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
+      <c r="AE9" s="155">
+        <v>11</v>
+      </c>
       <c r="AF9" s="155"/>
       <c r="AG9" s="156"/>
-      <c r="AH9" s="154"/>
+      <c r="AH9" s="154">
+        <v>11</v>
+      </c>
       <c r="AI9" s="155"/>
       <c r="AJ9" s="157"/>
     </row>
@@ -35645,22 +36102,20 @@
         <v>31</v>
       </c>
       <c r="D14" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="159">
         <v>1</v>
       </c>
       <c r="F14" s="160"/>
-      <c r="G14" s="161">
-        <v>1</v>
-      </c>
+      <c r="G14" s="161"/>
       <c r="H14" s="159"/>
       <c r="I14" s="160"/>
       <c r="J14" s="160"/>
       <c r="K14" s="160"/>
       <c r="L14" s="160"/>
       <c r="M14" s="161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="159"/>
       <c r="O14" s="160"/>
@@ -35672,14 +36127,14 @@
       <c r="U14" s="160"/>
       <c r="V14" s="160"/>
       <c r="W14" s="161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="159"/>
       <c r="Y14" s="160"/>
       <c r="Z14" s="160"/>
       <c r="AA14" s="160"/>
       <c r="AB14" s="161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="159"/>
       <c r="AD14" s="160">
@@ -35687,13 +36142,11 @@
       </c>
       <c r="AE14" s="160"/>
       <c r="AF14" s="160"/>
-      <c r="AG14" s="161">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="161"/>
       <c r="AH14" s="159"/>
       <c r="AI14" s="160"/>
       <c r="AJ14" s="162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
@@ -36434,7 +36887,7 @@
       </c>
       <c r="D4" s="189">
         <f>у1!D4+у2!D4+у3!D4+у4!D4+у5!D4+у6!D4+у7!D4+'у Олг'!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="190">
         <f>у1!E4+у2!E4+у3!E4+у4!E4+у5!E4+у6!E4+у7!E4+'у Олг'!E4</f>
@@ -36446,7 +36899,7 @@
       </c>
       <c r="G4" s="192">
         <f>у1!G4+у2!G4+у3!G4+у4!G4+у5!G4+у6!G4+у7!G4+'у Олг'!G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="190">
         <f>у1!H4+у2!H4+у3!H4+у4!H4+у5!H4+у6!H4+у7!H4+'у Олг'!H4</f>
@@ -36470,7 +36923,7 @@
       </c>
       <c r="M4" s="192">
         <f>у1!M4+у2!M4+у3!M4+у4!M4+у5!M4+у6!M4+у7!M4+'у Олг'!M4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="190">
         <f>у1!N4+у2!N4+у3!N4+у4!N4+у5!N4+у6!N4+у7!N4+'у Олг'!N4</f>
@@ -36510,7 +36963,7 @@
       </c>
       <c r="W4" s="192">
         <f>у1!W4+у2!W4+у3!W4+у4!W4+у5!W4+у6!W4+у7!W4+'у Олг'!W4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="190">
         <f>у1!X4+у2!X4+у3!X4+у4!X4+у5!X4+у6!X4+у7!X4+'у Олг'!X4</f>
@@ -36530,11 +36983,11 @@
       </c>
       <c r="AB4" s="192">
         <f>у1!AB4+у2!AB4+у3!AB4+у4!AB4+у5!AB4+у6!AB4+у7!AB4+'у Олг'!AB4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="190">
         <f>у1!AC4+у2!AC4+у3!AC4+у4!AC4+у5!AC4+у6!AC4+у7!AC4+'у Олг'!AC4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="191">
         <f>у1!AD4+у2!AD4+у3!AD4+у4!AD4+у5!AD4+у6!AD4+у7!AD4+'у Олг'!AD4</f>
@@ -36562,14 +37015,14 @@
       </c>
       <c r="AJ4" s="193">
         <f>у1!AJ4+у2!AJ4+у3!AJ4+у4!AJ4+у5!AJ4+у6!AJ4+у7!AJ4+'у Олг'!AJ4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="89"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f t="shared" ref="A5:A24" si="0">IF(AND(D5=SUM(E5:G5),D5=SUM(H5:M5),D5=SUM(N5:W5),D5=SUM(X5:AB5),D5=SUM(AC5:AG5),D5=SUM(AH5:AJ5)),"V","X")</f>
-        <v>X</v>
+        <v>V</v>
       </c>
       <c r="B5" s="259"/>
       <c r="C5" s="15" t="s">
@@ -36661,7 +37114,7 @@
       </c>
       <c r="Y5" s="196">
         <f>у1!Y5+у2!Y5+у3!Y5+у4!Y5+у5!Y5+у6!Y5+у7!Y5+'у Олг'!Y5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="196">
         <f>у1!Z5+у2!Z5+у3!Z5+у4!Z5+у5!Z5+у6!Z5+у7!Z5+'у Олг'!Z5</f>
@@ -36673,11 +37126,11 @@
       </c>
       <c r="AB5" s="197">
         <f>у1!AB5+у2!AB5+у3!AB5+у4!AB5+у5!AB5+у6!AB5+у7!AB5+'у Олг'!AB5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="195">
         <f>у1!AC5+у2!AC5+у3!AC5+у4!AC5+у5!AC5+у6!AC5+у7!AC5+'у Олг'!AC5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="196">
         <f>у1!AD5+у2!AD5+у3!AD5+у4!AD5+у5!AD5+у6!AD5+у7!AD5+'у Олг'!AD5</f>
@@ -36685,7 +37138,7 @@
       </c>
       <c r="AE5" s="196">
         <f>у1!AE5+у2!AE5+у3!AE5+у4!AE5+у5!AE5+у6!AE5+у7!AE5+'у Олг'!AE5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="196">
         <f>у1!AF5+у2!AF5+у3!AF5+у4!AF5+у5!AF5+у6!AF5+у7!AF5+'у Олг'!AF5</f>
@@ -36720,11 +37173,11 @@
       </c>
       <c r="D6" s="199">
         <f>у1!D6+у2!D6+у3!D6+у4!D6+у5!D6+у6!D6+у7!D6+'у Олг'!D6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="200">
         <f>у1!E6+у2!E6+у3!E6+у4!E6+у5!E6+у6!E6+у7!E6+'у Олг'!E6</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" s="201">
         <f>у1!F6+у2!F6+у3!F6+у4!F6+у5!F6+у6!F6+у7!F6+'у Олг'!F6</f>
@@ -36732,15 +37185,15 @@
       </c>
       <c r="G6" s="202">
         <f>у1!G6+у2!G6+у3!G6+у4!G6+у5!G6+у6!G6+у7!G6+'у Олг'!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="200">
         <f>у1!H6+у2!H6+у3!H6+у4!H6+у5!H6+у6!H6+у7!H6+'у Олг'!H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="201">
         <f>у1!I6+у2!I6+у3!I6+у4!I6+у5!I6+у6!I6+у7!I6+'у Олг'!I6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="201">
         <f>у1!J6+у2!J6+у3!J6+у4!J6+у5!J6+у6!J6+у7!J6+'у Олг'!J6</f>
@@ -36756,15 +37209,15 @@
       </c>
       <c r="M6" s="202">
         <f>у1!M6+у2!M6+у3!M6+у4!M6+у5!M6+у6!M6+у7!M6+'у Олг'!M6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="200">
         <f>у1!N6+у2!N6+у3!N6+у4!N6+у5!N6+у6!N6+у7!N6+'у Олг'!N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="201">
         <f>у1!O6+у2!O6+у3!O6+у4!O6+у5!O6+у6!O6+у7!O6+'у Олг'!O6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P6" s="201">
         <f>у1!P6+у2!P6+у3!P6+у4!P6+у5!P6+у6!P6+у7!P6+'у Олг'!P6</f>
@@ -36796,19 +37249,19 @@
       </c>
       <c r="W6" s="202">
         <f>у1!W6+у2!W6+у3!W6+у4!W6+у5!W6+у6!W6+у7!W6+'у Олг'!W6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="200">
         <f>у1!X6+у2!X6+у3!X6+у4!X6+у5!X6+у6!X6+у7!X6+'у Олг'!X6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="201">
         <f>у1!Y6+у2!Y6+у3!Y6+у4!Y6+у5!Y6+у6!Y6+у7!Y6+'у Олг'!Y6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="201">
         <f>у1!Z6+у2!Z6+у3!Z6+у4!Z6+у5!Z6+у6!Z6+у7!Z6+'у Олг'!Z6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="201">
         <f>у1!AA6+у2!AA6+у3!AA6+у4!AA6+у5!AA6+у6!AA6+у7!AA6+'у Олг'!AA6</f>
@@ -36816,7 +37269,7 @@
       </c>
       <c r="AB6" s="202">
         <f>у1!AB6+у2!AB6+у3!AB6+у4!AB6+у5!AB6+у6!AB6+у7!AB6+'у Олг'!AB6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="200">
         <f>у1!AC6+у2!AC6+у3!AC6+у4!AC6+у5!AC6+у6!AC6+у7!AC6+'у Олг'!AC6</f>
@@ -36824,19 +37277,19 @@
       </c>
       <c r="AD6" s="201">
         <f>у1!AD6+у2!AD6+у3!AD6+у4!AD6+у5!AD6+у6!AD6+у7!AD6+'у Олг'!AD6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="201">
         <f>у1!AE6+у2!AE6+у3!AE6+у4!AE6+у5!AE6+у6!AE6+у7!AE6+'у Олг'!AE6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF6" s="201">
         <f>у1!AF6+у2!AF6+у3!AF6+у4!AF6+у5!AF6+у6!AF6+у7!AF6+'у Олг'!AF6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="202">
         <f>у1!AG6+у2!AG6+у3!AG6+у4!AG6+у5!AG6+у6!AG6+у7!AG6+'у Олг'!AG6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="200">
         <f>у1!AH6+у2!AH6+у3!AH6+у4!AH6+у5!AH6+у6!AH6+у7!AH6+'у Олг'!AH6</f>
@@ -36848,7 +37301,7 @@
       </c>
       <c r="AJ6" s="203">
         <f>у1!AJ6+у2!AJ6+у3!AJ6+у4!AJ6+у5!AJ6+у6!AJ6+у7!AJ6+'у Олг'!AJ6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="89"/>
     </row>
@@ -36866,11 +37319,11 @@
       </c>
       <c r="D7" s="204">
         <f>у1!D7+у2!D7+у3!D7+у4!D7+у5!D7+у6!D7+у7!D7+'у Олг'!D7</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" s="205">
         <f>у1!E7+у2!E7+у3!E7+у4!E7+у5!E7+у6!E7+у7!E7+'у Олг'!E7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="206">
         <f>у1!F7+у2!F7+у3!F7+у4!F7+у5!F7+у6!F7+у7!F7+'у Олг'!F7</f>
@@ -36878,7 +37331,7 @@
       </c>
       <c r="G7" s="207">
         <f>у1!G7+у2!G7+у3!G7+у4!G7+у5!G7+у6!G7+у7!G7+'у Олг'!G7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="205">
         <f>у1!H7+у2!H7+у3!H7+у4!H7+у5!H7+у6!H7+у7!H7+'у Олг'!H7</f>
@@ -36886,7 +37339,7 @@
       </c>
       <c r="I7" s="206">
         <f>у1!I7+у2!I7+у3!I7+у4!I7+у5!I7+у6!I7+у7!I7+'у Олг'!I7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="206">
         <f>у1!J7+у2!J7+у3!J7+у4!J7+у5!J7+у6!J7+у7!J7+'у Олг'!J7</f>
@@ -36902,7 +37355,7 @@
       </c>
       <c r="M7" s="207">
         <f>у1!M7+у2!M7+у3!M7+у4!M7+у5!M7+у6!M7+у7!M7+'у Олг'!M7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="205">
         <f>у1!N7+у2!N7+у3!N7+у4!N7+у5!N7+у6!N7+у7!N7+'у Олг'!N7</f>
@@ -36910,7 +37363,7 @@
       </c>
       <c r="O7" s="206">
         <f>у1!O7+у2!O7+у3!O7+у4!O7+у5!O7+у6!O7+у7!O7+'у Олг'!O7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="206">
         <f>у1!P7+у2!P7+у3!P7+у4!P7+у5!P7+у6!P7+у7!P7+'у Олг'!P7</f>
@@ -36942,15 +37395,15 @@
       </c>
       <c r="W7" s="207">
         <f>у1!W7+у2!W7+у3!W7+у4!W7+у5!W7+у6!W7+у7!W7+'у Олг'!W7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="205">
         <f>у1!X7+у2!X7+у3!X7+у4!X7+у5!X7+у6!X7+у7!X7+'у Олг'!X7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="206">
         <f>у1!Y7+у2!Y7+у3!Y7+у4!Y7+у5!Y7+у6!Y7+у7!Y7+'у Олг'!Y7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="206">
         <f>у1!Z7+у2!Z7+у3!Z7+у4!Z7+у5!Z7+у6!Z7+у7!Z7+'у Олг'!Z7</f>
@@ -36962,7 +37415,7 @@
       </c>
       <c r="AB7" s="207">
         <f>у1!AB7+у2!AB7+у3!AB7+у4!AB7+у5!AB7+у6!AB7+у7!AB7+'у Олг'!AB7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="205">
         <f>у1!AC7+у2!AC7+у3!AC7+у4!AC7+у5!AC7+у6!AC7+у7!AC7+'у Олг'!AC7</f>
@@ -36974,19 +37427,19 @@
       </c>
       <c r="AE7" s="206">
         <f>у1!AE7+у2!AE7+у3!AE7+у4!AE7+у5!AE7+у6!AE7+у7!AE7+'у Олг'!AE7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="206">
         <f>у1!AF7+у2!AF7+у3!AF7+у4!AF7+у5!AF7+у6!AF7+у7!AF7+'у Олг'!AF7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="207">
         <f>у1!AG7+у2!AG7+у3!AG7+у4!AG7+у5!AG7+у6!AG7+у7!AG7+'у Олг'!AG7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="205">
         <f>у1!AH7+у2!AH7+у3!AH7+у4!AH7+у5!AH7+у6!AH7+у7!AH7+'у Олг'!AH7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI7" s="206">
         <f>у1!AI7+у2!AI7+у3!AI7+у4!AI7+у5!AI7+у6!AI7+у7!AI7+'у Олг'!AI7</f>
@@ -36994,7 +37447,7 @@
       </c>
       <c r="AJ7" s="208">
         <f>у1!AJ7+у2!AJ7+у3!AJ7+у4!AJ7+у5!AJ7+у6!AJ7+у7!AJ7+'у Олг'!AJ7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="89"/>
     </row>
@@ -37009,11 +37462,11 @@
       </c>
       <c r="D8" s="209">
         <f>у1!D8+у2!D8+у3!D8+у4!D8+у5!D8+у6!D8+у7!D8+'у Олг'!D8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="210">
         <f>у1!E8+у2!E8+у3!E8+у4!E8+у5!E8+у6!E8+у7!E8+'у Олг'!E8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8" s="211">
         <f>у1!F8+у2!F8+у3!F8+у4!F8+у5!F8+у6!F8+у7!F8+'у Олг'!F8</f>
@@ -37029,11 +37482,11 @@
       </c>
       <c r="I8" s="211">
         <f>у1!I8+у2!I8+у3!I8+у4!I8+у5!I8+у6!I8+у7!I8+'у Олг'!I8</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J8" s="211">
         <f>у1!J8+у2!J8+у3!J8+у4!J8+у5!J8+у6!J8+у7!J8+'у Олг'!J8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="211">
         <f>у1!K8+у2!K8+у3!K8+у4!K8+у5!K8+у6!K8+у7!K8+'у Олг'!K8</f>
@@ -37053,11 +37506,11 @@
       </c>
       <c r="O8" s="211">
         <f>у1!O8+у2!O8+у3!O8+у4!O8+у5!O8+у6!O8+у7!O8+'у Олг'!O8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="211">
         <f>у1!P8+у2!P8+у3!P8+у4!P8+у5!P8+у6!P8+у7!P8+'у Олг'!P8</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="211">
         <f>у1!Q8+у2!Q8+у3!Q8+у4!Q8+у5!Q8+у6!Q8+у7!Q8+'у Олг'!Q8</f>
@@ -37089,7 +37542,7 @@
       </c>
       <c r="X8" s="210">
         <f>у1!X8+у2!X8+у3!X8+у4!X8+у5!X8+у6!X8+у7!X8+'у Олг'!X8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="211">
         <f>у1!Y8+у2!Y8+у3!Y8+у4!Y8+у5!Y8+у6!Y8+у7!Y8+'у Олг'!Y8</f>
@@ -37101,11 +37554,11 @@
       </c>
       <c r="AA8" s="211">
         <f>у1!AA8+у2!AA8+у3!AA8+у4!AA8+у5!AA8+у6!AA8+у7!AA8+'у Олг'!AA8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="212">
         <f>у1!AB8+у2!AB8+у3!AB8+у4!AB8+у5!AB8+у6!AB8+у7!AB8+'у Олг'!AB8</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="210">
         <f>у1!AC8+у2!AC8+у3!AC8+у4!AC8+у5!AC8+у6!AC8+у7!AC8+'у Олг'!AC8</f>
@@ -37113,15 +37566,15 @@
       </c>
       <c r="AD8" s="211">
         <f>у1!AD8+у2!AD8+у3!AD8+у4!AD8+у5!AD8+у6!AD8+у7!AD8+'у Олг'!AD8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="211">
         <f>у1!AE8+у2!AE8+у3!AE8+у4!AE8+у5!AE8+у6!AE8+у7!AE8+'у Олг'!AE8</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="211">
         <f>у1!AF8+у2!AF8+у3!AF8+у4!AF8+у5!AF8+у6!AF8+у7!AF8+'у Олг'!AF8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="212">
         <f>у1!AG8+у2!AG8+у3!AG8+у4!AG8+у5!AG8+у6!AG8+у7!AG8+'у Олг'!AG8</f>
@@ -37129,7 +37582,7 @@
       </c>
       <c r="AH8" s="210">
         <f>у1!AH8+у2!AH8+у3!AH8+у4!AH8+у5!AH8+у6!AH8+у7!AH8+'у Олг'!AH8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI8" s="211">
         <f>у1!AI8+у2!AI8+у3!AI8+у4!AI8+у5!AI8+у6!AI8+у7!AI8+'у Олг'!AI8</f>
@@ -37155,11 +37608,11 @@
       </c>
       <c r="D9" s="194">
         <f>у1!D9+у2!D9+у3!D9+у4!D9+у5!D9+у6!D9+у7!D9+'у Олг'!D9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" s="195">
         <f>у1!E9+у2!E9+у3!E9+у4!E9+у5!E9+у6!E9+у7!E9+'у Олг'!E9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" s="196">
         <f>у1!F9+у2!F9+у3!F9+у4!F9+у5!F9+у6!F9+у7!F9+'у Олг'!F9</f>
@@ -37175,7 +37628,7 @@
       </c>
       <c r="I9" s="196">
         <f>у1!I9+у2!I9+у3!I9+у4!I9+у5!I9+у6!I9+у7!I9+'у Олг'!I9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J9" s="196">
         <f>у1!J9+у2!J9+у3!J9+у4!J9+у5!J9+у6!J9+у7!J9+'у Олг'!J9</f>
@@ -37203,7 +37656,7 @@
       </c>
       <c r="P9" s="196">
         <f>у1!P9+у2!P9+у3!P9+у4!P9+у5!P9+у6!P9+у7!P9+'у Олг'!P9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="196">
         <f>у1!Q9+у2!Q9+у3!Q9+у4!Q9+у5!Q9+у6!Q9+у7!Q9+'у Олг'!Q9</f>
@@ -37251,7 +37704,7 @@
       </c>
       <c r="AB9" s="197">
         <f>у1!AB9+у2!AB9+у3!AB9+у4!AB9+у5!AB9+у6!AB9+у7!AB9+'у Олг'!AB9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC9" s="195">
         <f>у1!AC9+у2!AC9+у3!AC9+у4!AC9+у5!AC9+у6!AC9+у7!AC9+'у Олг'!AC9</f>
@@ -37263,7 +37716,7 @@
       </c>
       <c r="AE9" s="196">
         <f>у1!AE9+у2!AE9+у3!AE9+у4!AE9+у5!AE9+у6!AE9+у7!AE9+'у Олг'!AE9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="196">
         <f>у1!AF9+у2!AF9+у3!AF9+у4!AF9+у5!AF9+у6!AF9+у7!AF9+'у Олг'!AF9</f>
@@ -37275,7 +37728,7 @@
       </c>
       <c r="AH9" s="195">
         <f>у1!AH9+у2!AH9+у3!AH9+у4!AH9+у5!AH9+у6!AH9+у7!AH9+'у Олг'!AH9</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI9" s="196">
         <f>у1!AI9+у2!AI9+у3!AI9+у4!AI9+у5!AI9+у6!AI9+у7!AI9+'у Олг'!AI9</f>
@@ -37885,7 +38338,7 @@
       </c>
       <c r="D14" s="199">
         <f>у1!D14+у2!D14+у3!D14+у4!D14+у5!D14+у6!D14+у7!D14+'у Олг'!D14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="200">
         <f>у1!E14+у2!E14+у3!E14+у4!E14+у5!E14+у6!E14+у7!E14+'у Олг'!E14</f>
@@ -37897,7 +38350,7 @@
       </c>
       <c r="G14" s="202">
         <f>у1!G14+у2!G14+у3!G14+у4!G14+у5!G14+у6!G14+у7!G14+'у Олг'!G14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="200">
         <f>у1!H14+у2!H14+у3!H14+у4!H14+у5!H14+у6!H14+у7!H14+'у Олг'!H14</f>
@@ -37921,7 +38374,7 @@
       </c>
       <c r="M14" s="202">
         <f>у1!M14+у2!M14+у3!M14+у4!M14+у5!M14+у6!M14+у7!M14+'у Олг'!M14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="200">
         <f>у1!N14+у2!N14+у3!N14+у4!N14+у5!N14+у6!N14+у7!N14+'у Олг'!N14</f>
@@ -37961,7 +38414,7 @@
       </c>
       <c r="W14" s="202">
         <f>у1!W14+у2!W14+у3!W14+у4!W14+у5!W14+у6!W14+у7!W14+'у Олг'!W14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="200">
         <f>у1!X14+у2!X14+у3!X14+у4!X14+у5!X14+у6!X14+у7!X14+'у Олг'!X14</f>
@@ -37981,7 +38434,7 @@
       </c>
       <c r="AB14" s="202">
         <f>у1!AB14+у2!AB14+у3!AB14+у4!AB14+у5!AB14+у6!AB14+у7!AB14+'у Олг'!AB14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="200">
         <f>у1!AC14+у2!AC14+у3!AC14+у4!AC14+у5!AC14+у6!AC14+у7!AC14+'у Олг'!AC14</f>
@@ -38001,7 +38454,7 @@
       </c>
       <c r="AG14" s="202">
         <f>у1!AG14+у2!AG14+у3!AG14+у4!AG14+у5!AG14+у6!AG14+у7!AG14+'у Олг'!AG14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="200">
         <f>у1!AH14+у2!AH14+у3!AH14+у4!AH14+у5!AH14+у6!AH14+у7!AH14+'у Олг'!AH14</f>
@@ -38013,7 +38466,7 @@
       </c>
       <c r="AJ14" s="203">
         <f>у1!AJ14+у2!AJ14+у3!AJ14+у4!AJ14+у5!AJ14+у6!AJ14+у7!AJ14+'у Олг'!AJ14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="89"/>
     </row>
